--- a/data/covid-county.xlsx
+++ b/data/covid-county.xlsx
@@ -395,13 +395,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>135</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3">
@@ -411,13 +411,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>528</v>
+        <v>664</v>
       </c>
       <c r="C3" t="n">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="D3" t="n">
-        <v>3557</v>
+        <v>4378</v>
       </c>
     </row>
     <row r="4">
@@ -427,13 +427,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>241</v>
+        <v>269</v>
       </c>
       <c r="C4" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D4" t="n">
-        <v>594</v>
+        <v>654</v>
       </c>
     </row>
     <row r="5">
@@ -443,13 +443,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>85</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6">
@@ -459,13 +459,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>111</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7">
@@ -475,13 +475,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="C7" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D7" t="n">
-        <v>1074</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="8">
@@ -491,13 +491,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>64</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9">
@@ -507,13 +507,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>166</v>
+        <v>554</v>
       </c>
     </row>
     <row r="10">
@@ -523,13 +523,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1125</v>
+        <v>1371</v>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>1739</v>
+        <v>2643</v>
       </c>
     </row>
     <row r="11">
@@ -539,13 +539,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>288</v>
+        <v>334</v>
       </c>
       <c r="C11" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D11" t="n">
-        <v>1647</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="12">
@@ -555,13 +555,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>215</v>
+        <v>263</v>
       </c>
     </row>
     <row r="13">
@@ -571,13 +571,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>360</v>
+        <v>557</v>
       </c>
     </row>
     <row r="14">
@@ -593,7 +593,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>126</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15">
@@ -603,13 +603,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C15" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D15" t="n">
-        <v>324</v>
+        <v>391</v>
       </c>
     </row>
     <row r="16">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="C16" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D16" t="n">
-        <v>327</v>
+        <v>432</v>
       </c>
     </row>
     <row r="17">
@@ -635,13 +635,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C17" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D17" t="n">
-        <v>565</v>
+        <v>627</v>
       </c>
     </row>
     <row r="18">
@@ -651,13 +651,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C18" t="n">
         <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>211</v>
+        <v>257</v>
       </c>
     </row>
     <row r="19">
@@ -667,13 +667,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>156</v>
+        <v>200</v>
       </c>
       <c r="C19" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D19" t="n">
-        <v>1408</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="20">
@@ -683,13 +683,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>227</v>
+        <v>286</v>
       </c>
     </row>
     <row r="21">
@@ -699,13 +699,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>281</v>
+        <v>321</v>
       </c>
       <c r="C21" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D21" t="n">
-        <v>2058</v>
+        <v>2462</v>
       </c>
     </row>
     <row r="22">
@@ -715,13 +715,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C22" t="n">
         <v>4</v>
       </c>
       <c r="D22" t="n">
-        <v>156</v>
+        <v>211</v>
       </c>
     </row>
     <row r="23">
@@ -731,13 +731,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>174</v>
+        <v>204</v>
       </c>
       <c r="C23" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D23" t="n">
-        <v>1054</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="24">
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C24" t="n">
         <v>2</v>
       </c>
       <c r="D24" t="n">
-        <v>139</v>
+        <v>181</v>
       </c>
     </row>
     <row r="25">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C25" t="n">
         <v>7</v>
       </c>
       <c r="D25" t="n">
-        <v>214</v>
+        <v>240</v>
       </c>
     </row>
     <row r="26">
@@ -779,13 +779,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>157</v>
+        <v>213</v>
       </c>
     </row>
     <row r="27">
@@ -795,13 +795,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>137</v>
+        <v>183</v>
       </c>
     </row>
     <row r="28">
@@ -811,13 +811,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>120</v>
+        <v>146</v>
       </c>
       <c r="C28" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D28" t="n">
-        <v>362</v>
+        <v>430</v>
       </c>
     </row>
     <row r="29">
@@ -827,13 +827,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>55</v>
+        <v>96</v>
       </c>
       <c r="C29" t="n">
         <v>6</v>
       </c>
       <c r="D29" t="n">
-        <v>384</v>
+        <v>480</v>
       </c>
     </row>
     <row r="30">
@@ -843,13 +843,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>746</v>
+        <v>845</v>
       </c>
       <c r="C30" t="n">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="D30" t="n">
-        <v>6262</v>
+        <v>7219</v>
       </c>
     </row>
     <row r="31">
@@ -859,13 +859,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>213</v>
+        <v>231</v>
       </c>
       <c r="C31" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D31" t="n">
-        <v>1516</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="32">
@@ -875,13 +875,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="C32" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D32" t="n">
-        <v>561</v>
+        <v>655</v>
       </c>
     </row>
     <row r="33">
@@ -891,13 +891,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>658</v>
+        <v>774</v>
       </c>
       <c r="C33" t="n">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="D33" t="n">
-        <v>2498</v>
+        <v>3078</v>
       </c>
     </row>
     <row r="34">
@@ -907,13 +907,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="C34" t="n">
         <v>1</v>
       </c>
       <c r="D34" t="n">
-        <v>489</v>
+        <v>622</v>
       </c>
     </row>
     <row r="35">
@@ -923,13 +923,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>169</v>
+        <v>202</v>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D35" t="n">
-        <v>814</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="36">
@@ -939,13 +939,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C36" t="n">
         <v>2</v>
       </c>
       <c r="D36" t="n">
-        <v>188</v>
+        <v>251</v>
       </c>
     </row>
     <row r="37">
@@ -955,13 +955,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>128</v>
+        <v>166</v>
       </c>
       <c r="C37" t="n">
         <v>1</v>
       </c>
       <c r="D37" t="n">
-        <v>571</v>
+        <v>675</v>
       </c>
     </row>
     <row r="38">
@@ -971,13 +971,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C38" t="n">
         <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>420</v>
+        <v>528</v>
       </c>
     </row>
     <row r="39">
@@ -987,13 +987,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>126</v>
+        <v>182</v>
       </c>
     </row>
     <row r="40">
@@ -1003,13 +1003,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>573</v>
+        <v>597</v>
       </c>
     </row>
     <row r="41">
@@ -1019,13 +1019,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
-        <v>245</v>
+        <v>273</v>
       </c>
     </row>
     <row r="42">
@@ -1035,13 +1035,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>563</v>
+        <v>718</v>
       </c>
       <c r="C42" t="n">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="D42" t="n">
-        <v>3051</v>
+        <v>3683</v>
       </c>
     </row>
     <row r="43">
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>279</v>
+        <v>330</v>
       </c>
     </row>
     <row r="44">
@@ -1067,13 +1067,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C44" t="n">
         <v>1</v>
       </c>
       <c r="D44" t="n">
-        <v>506</v>
+        <v>633</v>
       </c>
     </row>
     <row r="45">
@@ -1083,13 +1083,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C45" t="n">
         <v>2</v>
       </c>
       <c r="D45" t="n">
-        <v>140</v>
+        <v>169</v>
       </c>
     </row>
     <row r="46">
@@ -1099,13 +1099,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1786</v>
+        <v>2098</v>
       </c>
       <c r="C46" t="n">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="D46" t="n">
-        <v>8099</v>
+        <v>9871</v>
       </c>
     </row>
     <row r="47">
@@ -1115,13 +1115,13 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>209</v>
+        <v>254</v>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D47" t="n">
-        <v>1162</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="48">
@@ -1131,13 +1131,13 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="C48" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D48" t="n">
-        <v>490</v>
+        <v>587</v>
       </c>
     </row>
     <row r="49">
@@ -1147,13 +1147,13 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>409</v>
+        <v>450</v>
       </c>
       <c r="C49" t="n">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D49" t="n">
-        <v>1725</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="50">
@@ -1163,13 +1163,13 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>5294</v>
+        <v>6327</v>
       </c>
       <c r="C50" t="n">
-        <v>305</v>
+        <v>363</v>
       </c>
       <c r="D50" t="n">
-        <v>24001</v>
+        <v>28892</v>
       </c>
     </row>
     <row r="51">
@@ -1179,13 +1179,13 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C51" t="n">
         <v>1</v>
       </c>
       <c r="D51" t="n">
-        <v>418</v>
+        <v>485</v>
       </c>
     </row>
     <row r="52">
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>59</v>
+        <v>79</v>
       </c>
     </row>
     <row r="53">
@@ -1211,13 +1211,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D53" t="n">
-        <v>390</v>
+        <v>580</v>
       </c>
     </row>
     <row r="54">
@@ -1227,13 +1227,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="C54" t="n">
         <v>8</v>
       </c>
       <c r="D54" t="n">
-        <v>1120</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="55">
@@ -1243,13 +1243,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>40</v>
+        <v>102</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>374</v>
+        <v>552</v>
       </c>
     </row>
     <row r="56">
@@ -1259,13 +1259,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>140</v>
+        <v>168</v>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D56" t="n">
-        <v>1104</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="57">
@@ -1275,13 +1275,13 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D57" t="n">
-        <v>130</v>
+        <v>178</v>
       </c>
     </row>
     <row r="58">
@@ -1291,13 +1291,13 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="C58" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D58" t="n">
-        <v>334</v>
+        <v>404</v>
       </c>
     </row>
     <row r="59">
@@ -1307,13 +1307,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="60">
@@ -1323,13 +1323,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>64</v>
+        <v>105</v>
       </c>
       <c r="C60" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D60" t="n">
-        <v>253</v>
+        <v>341</v>
       </c>
     </row>
     <row r="61">
@@ -1339,13 +1339,13 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C61" t="n">
         <v>1</v>
       </c>
       <c r="D61" t="n">
-        <v>256</v>
+        <v>310</v>
       </c>
     </row>
     <row r="62">
@@ -1361,7 +1361,7 @@
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>131</v>
+        <v>160</v>
       </c>
     </row>
     <row r="63">
@@ -1371,13 +1371,13 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>130</v>
+        <v>172</v>
       </c>
     </row>
     <row r="64">
@@ -1387,13 +1387,13 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>53</v>
+        <v>66</v>
       </c>
     </row>
     <row r="65">
@@ -1403,13 +1403,13 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>232</v>
+        <v>258</v>
       </c>
       <c r="C65" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D65" t="n">
-        <v>1659</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="66">
@@ -1419,13 +1419,13 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>107</v>
+        <v>158</v>
       </c>
     </row>
     <row r="67">
@@ -1435,13 +1435,13 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>171</v>
+        <v>240</v>
       </c>
     </row>
     <row r="68">
@@ -1451,13 +1451,13 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="C68" t="n">
         <v>4</v>
       </c>
       <c r="D68" t="n">
-        <v>519</v>
+        <v>641</v>
       </c>
     </row>
     <row r="69">
@@ -1467,13 +1467,13 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C69" t="n">
         <v>2</v>
       </c>
       <c r="D69" t="n">
-        <v>193</v>
+        <v>245</v>
       </c>
     </row>
     <row r="70">
@@ -1483,13 +1483,13 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D70" t="n">
-        <v>440</v>
+        <v>502</v>
       </c>
     </row>
     <row r="71">
@@ -1499,13 +1499,13 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C71" t="n">
         <v>1</v>
       </c>
       <c r="D71" t="n">
-        <v>184</v>
+        <v>220</v>
       </c>
     </row>
     <row r="72">
@@ -1515,13 +1515,13 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="C72" t="n">
         <v>2</v>
       </c>
       <c r="D72" t="n">
-        <v>373</v>
+        <v>443</v>
       </c>
     </row>
     <row r="73">
@@ -1531,13 +1531,13 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>194</v>
+        <v>224</v>
       </c>
       <c r="C73" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D73" t="n">
-        <v>774</v>
+        <v>923</v>
       </c>
     </row>
     <row r="74">
@@ -1550,10 +1550,10 @@
         <v>5</v>
       </c>
       <c r="C74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D74" t="n">
-        <v>111</v>
+        <v>138</v>
       </c>
     </row>
     <row r="75">
@@ -1563,13 +1563,13 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>620</v>
+        <v>668</v>
       </c>
       <c r="C75" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D75" t="n">
-        <v>3161</v>
+        <v>3815</v>
       </c>
     </row>
     <row r="76">
@@ -1579,13 +1579,13 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
-        <v>189</v>
+        <v>220</v>
       </c>
     </row>
     <row r="77">
@@ -1595,13 +1595,13 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="C77" t="n">
         <v>1</v>
       </c>
       <c r="D77" t="n">
-        <v>228</v>
+        <v>245</v>
       </c>
     </row>
     <row r="78">
@@ -1617,7 +1617,7 @@
         <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>163</v>
+        <v>191</v>
       </c>
     </row>
     <row r="79">
@@ -1633,7 +1633,7 @@
         <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>123</v>
+        <v>131</v>
       </c>
     </row>
     <row r="80">
@@ -1643,13 +1643,13 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>102</v>
+        <v>181</v>
       </c>
       <c r="C80" t="n">
         <v>2</v>
       </c>
       <c r="D80" t="n">
-        <v>1619</v>
+        <v>2681</v>
       </c>
     </row>
     <row r="81">
@@ -1659,13 +1659,13 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C81" t="n">
         <v>1</v>
       </c>
       <c r="D81" t="n">
-        <v>115</v>
+        <v>157</v>
       </c>
     </row>
     <row r="82">
@@ -1681,7 +1681,7 @@
         <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>35</v>
+        <v>53</v>
       </c>
     </row>
     <row r="83">
@@ -1691,13 +1691,13 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="C83" t="n">
         <v>1</v>
       </c>
       <c r="D83" t="n">
-        <v>2636</v>
+        <v>3173</v>
       </c>
     </row>
     <row r="84">
@@ -1713,7 +1713,7 @@
         <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>92</v>
+        <v>126</v>
       </c>
     </row>
     <row r="85">
@@ -1723,13 +1723,13 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C85" t="n">
         <v>6</v>
       </c>
       <c r="D85" t="n">
-        <v>608</v>
+        <v>781</v>
       </c>
     </row>
     <row r="86">
@@ -1739,13 +1739,13 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="C86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
-        <v>166</v>
+        <v>236</v>
       </c>
     </row>
     <row r="87">
@@ -1761,7 +1761,7 @@
         <v>1</v>
       </c>
       <c r="D87" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
     </row>
     <row r="88">
@@ -1771,13 +1771,13 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="C88" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D88" t="n">
-        <v>548</v>
+        <v>737</v>
       </c>
     </row>
     <row r="89">
@@ -1787,13 +1787,13 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C89" t="n">
         <v>0</v>
       </c>
       <c r="D89" t="n">
-        <v>252</v>
+        <v>291</v>
       </c>
     </row>
     <row r="90">
@@ -1803,13 +1803,13 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C90" t="n">
         <v>3</v>
       </c>
       <c r="D90" t="n">
-        <v>355</v>
+        <v>494</v>
       </c>
     </row>
     <row r="91">
@@ -1819,13 +1819,13 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C91" t="n">
         <v>0</v>
       </c>
       <c r="D91" t="n">
-        <v>111</v>
+        <v>152</v>
       </c>
     </row>
     <row r="92">
@@ -1835,13 +1835,13 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="C92" t="n">
         <v>0</v>
       </c>
       <c r="D92" t="n">
-        <v>298</v>
+        <v>616</v>
       </c>
     </row>
     <row r="93">
@@ -1851,13 +1851,13 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C93" t="n">
         <v>1</v>
       </c>
       <c r="D93" t="n">
-        <v>156</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>

--- a/data/covid-county.xlsx
+++ b/data/covid-county.xlsx
@@ -395,13 +395,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3">
@@ -411,13 +411,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>664</v>
+        <v>695</v>
       </c>
       <c r="C3" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D3" t="n">
-        <v>4378</v>
+        <v>4438</v>
       </c>
     </row>
     <row r="4">
@@ -427,13 +427,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>269</v>
+        <v>297</v>
       </c>
       <c r="C4" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D4" t="n">
-        <v>654</v>
+        <v>662</v>
       </c>
     </row>
     <row r="5">
@@ -443,13 +443,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6">
@@ -459,13 +459,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7">
@@ -475,13 +475,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="C7" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="n">
-        <v>1262</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="8">
@@ -497,7 +497,7 @@
         <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9">
@@ -507,13 +507,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>554</v>
+        <v>589</v>
       </c>
     </row>
     <row r="10">
@@ -523,13 +523,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1371</v>
+        <v>1406</v>
       </c>
       <c r="C10" t="n">
         <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>2643</v>
+        <v>2713</v>
       </c>
     </row>
     <row r="11">
@@ -539,13 +539,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="C11" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D11" t="n">
-        <v>1917</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="12">
@@ -561,7 +561,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="13">
@@ -571,13 +571,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>557</v>
+        <v>567</v>
       </c>
     </row>
     <row r="14">
@@ -587,13 +587,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15">
@@ -609,7 +609,7 @@
         <v>15</v>
       </c>
       <c r="D15" t="n">
-        <v>391</v>
+        <v>399</v>
       </c>
     </row>
     <row r="16">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D16" t="n">
-        <v>432</v>
+        <v>440</v>
       </c>
     </row>
     <row r="17">
@@ -635,13 +635,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C17" t="n">
         <v>28</v>
       </c>
       <c r="D17" t="n">
-        <v>627</v>
+        <v>631</v>
       </c>
     </row>
     <row r="18">
@@ -657,7 +657,7 @@
         <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>257</v>
+        <v>281</v>
       </c>
     </row>
     <row r="19">
@@ -667,13 +667,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="C19" t="n">
         <v>15</v>
       </c>
       <c r="D19" t="n">
-        <v>1737</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="20">
@@ -683,13 +683,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>286</v>
+        <v>293</v>
       </c>
     </row>
     <row r="21">
@@ -699,13 +699,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>321</v>
+        <v>342</v>
       </c>
       <c r="C21" t="n">
         <v>13</v>
       </c>
       <c r="D21" t="n">
-        <v>2462</v>
+        <v>2577</v>
       </c>
     </row>
     <row r="22">
@@ -721,7 +721,7 @@
         <v>4</v>
       </c>
       <c r="D22" t="n">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="23">
@@ -731,13 +731,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="C23" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D23" t="n">
-        <v>1227</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="24">
@@ -753,7 +753,7 @@
         <v>2</v>
       </c>
       <c r="D24" t="n">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="25">
@@ -769,7 +769,7 @@
         <v>7</v>
       </c>
       <c r="D25" t="n">
-        <v>240</v>
+        <v>247</v>
       </c>
     </row>
     <row r="26">
@@ -779,13 +779,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C26" t="n">
         <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>213</v>
+        <v>223</v>
       </c>
     </row>
     <row r="27">
@@ -801,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>183</v>
+        <v>189</v>
       </c>
     </row>
     <row r="28">
@@ -817,7 +817,7 @@
         <v>12</v>
       </c>
       <c r="D28" t="n">
-        <v>430</v>
+        <v>436</v>
       </c>
     </row>
     <row r="29">
@@ -827,13 +827,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C29" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D29" t="n">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="30">
@@ -843,13 +843,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>845</v>
+        <v>859</v>
       </c>
       <c r="C30" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D30" t="n">
-        <v>7219</v>
+        <v>7630</v>
       </c>
     </row>
     <row r="31">
@@ -859,13 +859,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D31" t="n">
-        <v>1869</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="32">
@@ -878,10 +878,10 @@
         <v>138</v>
       </c>
       <c r="C32" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="n">
-        <v>655</v>
+        <v>660</v>
       </c>
     </row>
     <row r="33">
@@ -891,13 +891,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>774</v>
+        <v>785</v>
       </c>
       <c r="C33" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D33" t="n">
-        <v>3078</v>
+        <v>3116</v>
       </c>
     </row>
     <row r="34">
@@ -907,13 +907,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
-        <v>622</v>
+        <v>653</v>
       </c>
     </row>
     <row r="35">
@@ -923,13 +923,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="C35" t="n">
         <v>9</v>
       </c>
       <c r="D35" t="n">
-        <v>1277</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="36">
@@ -945,7 +945,7 @@
         <v>2</v>
       </c>
       <c r="D36" t="n">
-        <v>251</v>
+        <v>276</v>
       </c>
     </row>
     <row r="37">
@@ -955,13 +955,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="C37" t="n">
         <v>1</v>
       </c>
       <c r="D37" t="n">
-        <v>675</v>
+        <v>693</v>
       </c>
     </row>
     <row r="38">
@@ -971,13 +971,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C38" t="n">
         <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>528</v>
+        <v>542</v>
       </c>
     </row>
     <row r="39">
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="41">
@@ -1019,13 +1019,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C41" t="n">
         <v>3</v>
       </c>
       <c r="D41" t="n">
-        <v>273</v>
+        <v>280</v>
       </c>
     </row>
     <row r="42">
@@ -1035,13 +1035,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>718</v>
+        <v>730</v>
       </c>
       <c r="C42" t="n">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D42" t="n">
-        <v>3683</v>
+        <v>3742</v>
       </c>
     </row>
     <row r="43">
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="44">
@@ -1067,13 +1067,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C44" t="n">
         <v>1</v>
       </c>
       <c r="D44" t="n">
-        <v>633</v>
+        <v>668</v>
       </c>
     </row>
     <row r="45">
@@ -1083,13 +1083,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C45" t="n">
         <v>2</v>
       </c>
       <c r="D45" t="n">
-        <v>169</v>
+        <v>187</v>
       </c>
     </row>
     <row r="46">
@@ -1099,13 +1099,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2098</v>
+        <v>2161</v>
       </c>
       <c r="C46" t="n">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="D46" t="n">
-        <v>9871</v>
+        <v>10141</v>
       </c>
     </row>
     <row r="47">
@@ -1115,13 +1115,13 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="C47" t="n">
         <v>8</v>
       </c>
       <c r="D47" t="n">
-        <v>1517</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="48">
@@ -1131,13 +1131,13 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C48" t="n">
         <v>14</v>
       </c>
       <c r="D48" t="n">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="49">
@@ -1147,13 +1147,13 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="C49" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D49" t="n">
-        <v>2101</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="50">
@@ -1163,13 +1163,13 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>6327</v>
+        <v>6419</v>
       </c>
       <c r="C50" t="n">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="D50" t="n">
-        <v>28892</v>
+        <v>29067</v>
       </c>
     </row>
     <row r="51">
@@ -1179,13 +1179,13 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C51" t="n">
         <v>1</v>
       </c>
       <c r="D51" t="n">
-        <v>485</v>
+        <v>518</v>
       </c>
     </row>
     <row r="52">
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="53">
@@ -1211,13 +1211,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C53" t="n">
         <v>1</v>
       </c>
       <c r="D53" t="n">
-        <v>580</v>
+        <v>605</v>
       </c>
     </row>
     <row r="54">
@@ -1227,13 +1227,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C54" t="n">
         <v>8</v>
       </c>
       <c r="D54" t="n">
-        <v>1377</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="55">
@@ -1243,13 +1243,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
-        <v>552</v>
+        <v>582</v>
       </c>
     </row>
     <row r="56">
@@ -1259,13 +1259,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C56" t="n">
         <v>7</v>
       </c>
       <c r="D56" t="n">
-        <v>1385</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="57">
@@ -1275,7 +1275,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C57" t="n">
         <v>8</v>
@@ -1291,13 +1291,13 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="C58" t="n">
         <v>14</v>
       </c>
       <c r="D58" t="n">
-        <v>404</v>
+        <v>426</v>
       </c>
     </row>
     <row r="59">
@@ -1323,13 +1323,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C60" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D60" t="n">
-        <v>341</v>
+        <v>345</v>
       </c>
     </row>
     <row r="61">
@@ -1339,13 +1339,13 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C61" t="n">
         <v>1</v>
       </c>
       <c r="D61" t="n">
-        <v>310</v>
+        <v>313</v>
       </c>
     </row>
     <row r="62">
@@ -1355,7 +1355,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
@@ -1377,7 +1377,7 @@
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="64">
@@ -1393,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="65">
@@ -1403,13 +1403,13 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="C65" t="n">
         <v>7</v>
       </c>
       <c r="D65" t="n">
-        <v>1986</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="66">
@@ -1419,13 +1419,13 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>158</v>
+        <v>164</v>
       </c>
     </row>
     <row r="67">
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="68">
@@ -1451,13 +1451,13 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
-        <v>641</v>
+        <v>652</v>
       </c>
     </row>
     <row r="69">
@@ -1467,13 +1467,13 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C69" t="n">
         <v>2</v>
       </c>
       <c r="D69" t="n">
-        <v>245</v>
+        <v>251</v>
       </c>
     </row>
     <row r="70">
@@ -1483,13 +1483,13 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C70" t="n">
         <v>6</v>
       </c>
       <c r="D70" t="n">
-        <v>502</v>
+        <v>517</v>
       </c>
     </row>
     <row r="71">
@@ -1499,13 +1499,13 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
-        <v>220</v>
+        <v>231</v>
       </c>
     </row>
     <row r="72">
@@ -1515,13 +1515,13 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C72" t="n">
         <v>2</v>
       </c>
       <c r="D72" t="n">
-        <v>443</v>
+        <v>449</v>
       </c>
     </row>
     <row r="73">
@@ -1531,13 +1531,13 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C73" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D73" t="n">
-        <v>923</v>
+        <v>939</v>
       </c>
     </row>
     <row r="74">
@@ -1563,13 +1563,13 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>668</v>
+        <v>687</v>
       </c>
       <c r="C75" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D75" t="n">
-        <v>3815</v>
+        <v>4005</v>
       </c>
     </row>
     <row r="76">
@@ -1585,7 +1585,7 @@
         <v>2</v>
       </c>
       <c r="D76" t="n">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="77">
@@ -1595,13 +1595,13 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C77" t="n">
         <v>1</v>
       </c>
       <c r="D77" t="n">
-        <v>245</v>
+        <v>269</v>
       </c>
     </row>
     <row r="78">
@@ -1617,7 +1617,7 @@
         <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="79">
@@ -1643,13 +1643,13 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="C80" t="n">
         <v>2</v>
       </c>
       <c r="D80" t="n">
-        <v>2681</v>
+        <v>2761</v>
       </c>
     </row>
     <row r="81">
@@ -1665,7 +1665,7 @@
         <v>1</v>
       </c>
       <c r="D81" t="n">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="82">
@@ -1681,7 +1681,7 @@
         <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="83">
@@ -1691,13 +1691,13 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
-        <v>3173</v>
+        <v>3209</v>
       </c>
     </row>
     <row r="84">
@@ -1713,7 +1713,7 @@
         <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="85">
@@ -1723,13 +1723,13 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C85" t="n">
         <v>6</v>
       </c>
       <c r="D85" t="n">
-        <v>781</v>
+        <v>807</v>
       </c>
     </row>
     <row r="86">
@@ -1745,7 +1745,7 @@
         <v>2</v>
       </c>
       <c r="D86" t="n">
-        <v>236</v>
+        <v>267</v>
       </c>
     </row>
     <row r="87">
@@ -1755,13 +1755,13 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C87" t="n">
         <v>1</v>
       </c>
       <c r="D87" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="88">
@@ -1771,13 +1771,13 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C88" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D88" t="n">
-        <v>737</v>
+        <v>744</v>
       </c>
     </row>
     <row r="89">
@@ -1793,7 +1793,7 @@
         <v>0</v>
       </c>
       <c r="D89" t="n">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="90">
@@ -1803,13 +1803,13 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C90" t="n">
         <v>3</v>
       </c>
       <c r="D90" t="n">
-        <v>494</v>
+        <v>506</v>
       </c>
     </row>
     <row r="91">
@@ -1825,7 +1825,7 @@
         <v>0</v>
       </c>
       <c r="D91" t="n">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="92">
@@ -1835,13 +1835,13 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C92" t="n">
         <v>0</v>
       </c>
       <c r="D92" t="n">
-        <v>616</v>
+        <v>629</v>
       </c>
     </row>
     <row r="93">
@@ -1851,13 +1851,13 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C93" t="n">
         <v>1</v>
       </c>
       <c r="D93" t="n">
-        <v>215</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>

--- a/data/covid-county.xlsx
+++ b/data/covid-county.xlsx
@@ -395,7 +395,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -411,13 +411,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>695</v>
+        <v>718</v>
       </c>
       <c r="C3" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D3" t="n">
-        <v>4438</v>
+        <v>4505</v>
       </c>
     </row>
     <row r="4">
@@ -427,13 +427,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="C4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D4" t="n">
-        <v>662</v>
+        <v>682</v>
       </c>
     </row>
     <row r="5">
@@ -449,7 +449,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6">
@@ -459,13 +459,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>145</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7">
@@ -481,7 +481,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="n">
-        <v>1279</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="8">
@@ -491,13 +491,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9">
@@ -507,13 +507,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>589</v>
+        <v>601</v>
       </c>
     </row>
     <row r="10">
@@ -523,13 +523,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1406</v>
+        <v>1442</v>
       </c>
       <c r="C10" t="n">
         <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>2713</v>
+        <v>2805</v>
       </c>
     </row>
     <row r="11">
@@ -539,13 +539,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="C11" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D11" t="n">
-        <v>1941</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="12">
@@ -555,13 +555,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>267</v>
+        <v>284</v>
       </c>
     </row>
     <row r="13">
@@ -571,13 +571,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>567</v>
+        <v>585</v>
       </c>
     </row>
     <row r="14">
@@ -593,7 +593,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15">
@@ -609,7 +609,7 @@
         <v>15</v>
       </c>
       <c r="D15" t="n">
-        <v>399</v>
+        <v>410</v>
       </c>
     </row>
     <row r="16">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C16" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D16" t="n">
-        <v>440</v>
+        <v>446</v>
       </c>
     </row>
     <row r="17">
@@ -635,13 +635,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C17" t="n">
         <v>28</v>
       </c>
       <c r="D17" t="n">
-        <v>631</v>
+        <v>639</v>
       </c>
     </row>
     <row r="18">
@@ -651,13 +651,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C18" t="n">
         <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="19">
@@ -667,13 +667,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C19" t="n">
         <v>15</v>
       </c>
       <c r="D19" t="n">
-        <v>1771</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="20">
@@ -683,13 +683,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>293</v>
+        <v>303</v>
       </c>
     </row>
     <row r="21">
@@ -699,13 +699,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>342</v>
+        <v>361</v>
       </c>
       <c r="C21" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D21" t="n">
-        <v>2577</v>
+        <v>2729</v>
       </c>
     </row>
     <row r="22">
@@ -715,13 +715,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C22" t="n">
         <v>4</v>
       </c>
       <c r="D22" t="n">
-        <v>216</v>
+        <v>235</v>
       </c>
     </row>
     <row r="23">
@@ -731,13 +731,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="C23" t="n">
         <v>27</v>
       </c>
       <c r="D23" t="n">
-        <v>1247</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="24">
@@ -753,7 +753,7 @@
         <v>2</v>
       </c>
       <c r="D24" t="n">
-        <v>183</v>
+        <v>191</v>
       </c>
     </row>
     <row r="25">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C25" t="n">
         <v>7</v>
       </c>
       <c r="D25" t="n">
-        <v>247</v>
+        <v>254</v>
       </c>
     </row>
     <row r="26">
@@ -785,7 +785,7 @@
         <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>223</v>
+        <v>244</v>
       </c>
     </row>
     <row r="27">
@@ -801,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>189</v>
+        <v>204</v>
       </c>
     </row>
     <row r="28">
@@ -811,13 +811,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D28" t="n">
-        <v>436</v>
+        <v>465</v>
       </c>
     </row>
     <row r="29">
@@ -827,13 +827,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C29" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D29" t="n">
-        <v>482</v>
+        <v>500</v>
       </c>
     </row>
     <row r="30">
@@ -843,13 +843,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>859</v>
+        <v>882</v>
       </c>
       <c r="C30" t="n">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D30" t="n">
-        <v>7630</v>
+        <v>7875</v>
       </c>
     </row>
     <row r="31">
@@ -859,13 +859,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C31" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D31" t="n">
-        <v>1914</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="32">
@@ -875,13 +875,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="C32" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D32" t="n">
-        <v>660</v>
+        <v>670</v>
       </c>
     </row>
     <row r="33">
@@ -891,13 +891,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>785</v>
+        <v>883</v>
       </c>
       <c r="C33" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D33" t="n">
-        <v>3116</v>
+        <v>3324</v>
       </c>
     </row>
     <row r="34">
@@ -913,7 +913,7 @@
         <v>2</v>
       </c>
       <c r="D34" t="n">
-        <v>653</v>
+        <v>694</v>
       </c>
     </row>
     <row r="35">
@@ -923,13 +923,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="C35" t="n">
         <v>9</v>
       </c>
       <c r="D35" t="n">
-        <v>1343</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="36">
@@ -939,13 +939,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C36" t="n">
         <v>2</v>
       </c>
       <c r="D36" t="n">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="37">
@@ -955,13 +955,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="C37" t="n">
         <v>1</v>
       </c>
       <c r="D37" t="n">
-        <v>693</v>
+        <v>719</v>
       </c>
     </row>
     <row r="38">
@@ -977,7 +977,7 @@
         <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>542</v>
+        <v>555</v>
       </c>
     </row>
     <row r="39">
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>182</v>
+        <v>195</v>
       </c>
     </row>
     <row r="40">
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="41">
@@ -1019,13 +1019,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C41" t="n">
         <v>3</v>
       </c>
       <c r="D41" t="n">
-        <v>280</v>
+        <v>290</v>
       </c>
     </row>
     <row r="42">
@@ -1035,13 +1035,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>730</v>
+        <v>746</v>
       </c>
       <c r="C42" t="n">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D42" t="n">
-        <v>3742</v>
+        <v>3850</v>
       </c>
     </row>
     <row r="43">
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>331</v>
+        <v>362</v>
       </c>
     </row>
     <row r="44">
@@ -1067,13 +1067,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C44" t="n">
         <v>1</v>
       </c>
       <c r="D44" t="n">
-        <v>668</v>
+        <v>682</v>
       </c>
     </row>
     <row r="45">
@@ -1083,13 +1083,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C45" t="n">
         <v>2</v>
       </c>
       <c r="D45" t="n">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="46">
@@ -1099,13 +1099,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2161</v>
+        <v>2233</v>
       </c>
       <c r="C46" t="n">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D46" t="n">
-        <v>10141</v>
+        <v>10498</v>
       </c>
     </row>
     <row r="47">
@@ -1115,13 +1115,13 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>268</v>
+        <v>284</v>
       </c>
       <c r="C47" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="n">
-        <v>1582</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="48">
@@ -1131,13 +1131,13 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C48" t="n">
         <v>14</v>
       </c>
       <c r="D48" t="n">
-        <v>589</v>
+        <v>618</v>
       </c>
     </row>
     <row r="49">
@@ -1147,13 +1147,13 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="C49" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D49" t="n">
-        <v>2131</v>
+        <v>2213</v>
       </c>
     </row>
     <row r="50">
@@ -1163,13 +1163,13 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>6419</v>
+        <v>6730</v>
       </c>
       <c r="C50" t="n">
-        <v>374</v>
+        <v>390</v>
       </c>
       <c r="D50" t="n">
-        <v>29067</v>
+        <v>30485</v>
       </c>
     </row>
     <row r="51">
@@ -1179,13 +1179,13 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C51" t="n">
         <v>1</v>
       </c>
       <c r="D51" t="n">
-        <v>518</v>
+        <v>531</v>
       </c>
     </row>
     <row r="52">
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="53">
@@ -1211,13 +1211,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C53" t="n">
         <v>1</v>
       </c>
       <c r="D53" t="n">
-        <v>605</v>
+        <v>619</v>
       </c>
     </row>
     <row r="54">
@@ -1227,13 +1227,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C54" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="n">
-        <v>1393</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="55">
@@ -1243,13 +1243,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C55" t="n">
         <v>2</v>
       </c>
       <c r="D55" t="n">
-        <v>582</v>
+        <v>600</v>
       </c>
     </row>
     <row r="56">
@@ -1259,13 +1259,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="C56" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D56" t="n">
-        <v>1410</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="57">
@@ -1281,7 +1281,7 @@
         <v>8</v>
       </c>
       <c r="D57" t="n">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="58">
@@ -1291,13 +1291,13 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C58" t="n">
         <v>14</v>
       </c>
       <c r="D58" t="n">
-        <v>426</v>
+        <v>429</v>
       </c>
     </row>
     <row r="59">
@@ -1307,13 +1307,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="60">
@@ -1323,13 +1323,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C60" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D60" t="n">
-        <v>345</v>
+        <v>354</v>
       </c>
     </row>
     <row r="61">
@@ -1345,7 +1345,7 @@
         <v>1</v>
       </c>
       <c r="D61" t="n">
-        <v>313</v>
+        <v>330</v>
       </c>
     </row>
     <row r="62">
@@ -1361,7 +1361,7 @@
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="63">
@@ -1377,7 +1377,7 @@
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="64">
@@ -1393,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="65">
@@ -1403,13 +1403,13 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="C65" t="n">
         <v>7</v>
       </c>
       <c r="D65" t="n">
-        <v>2028</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="66">
@@ -1425,7 +1425,7 @@
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>164</v>
+        <v>173</v>
       </c>
     </row>
     <row r="67">
@@ -1435,13 +1435,13 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>243</v>
+        <v>258</v>
       </c>
     </row>
     <row r="68">
@@ -1457,7 +1457,7 @@
         <v>5</v>
       </c>
       <c r="D68" t="n">
-        <v>652</v>
+        <v>673</v>
       </c>
     </row>
     <row r="69">
@@ -1467,13 +1467,13 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C69" t="n">
         <v>2</v>
       </c>
       <c r="D69" t="n">
-        <v>251</v>
+        <v>269</v>
       </c>
     </row>
     <row r="70">
@@ -1483,13 +1483,13 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C70" t="n">
         <v>6</v>
       </c>
       <c r="D70" t="n">
-        <v>517</v>
+        <v>527</v>
       </c>
     </row>
     <row r="71">
@@ -1499,13 +1499,13 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C71" t="n">
         <v>2</v>
       </c>
       <c r="D71" t="n">
-        <v>231</v>
+        <v>243</v>
       </c>
     </row>
     <row r="72">
@@ -1521,7 +1521,7 @@
         <v>2</v>
       </c>
       <c r="D72" t="n">
-        <v>449</v>
+        <v>465</v>
       </c>
     </row>
     <row r="73">
@@ -1531,13 +1531,13 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="C73" t="n">
         <v>14</v>
       </c>
       <c r="D73" t="n">
-        <v>939</v>
+        <v>990</v>
       </c>
     </row>
     <row r="74">
@@ -1547,13 +1547,13 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C74" t="n">
         <v>1</v>
       </c>
       <c r="D74" t="n">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="75">
@@ -1563,13 +1563,13 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>687</v>
+        <v>714</v>
       </c>
       <c r="C75" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D75" t="n">
-        <v>4005</v>
+        <v>4180</v>
       </c>
     </row>
     <row r="76">
@@ -1585,7 +1585,7 @@
         <v>2</v>
       </c>
       <c r="D76" t="n">
-        <v>225</v>
+        <v>232</v>
       </c>
     </row>
     <row r="77">
@@ -1595,13 +1595,13 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C77" t="n">
         <v>1</v>
       </c>
       <c r="D77" t="n">
-        <v>269</v>
+        <v>280</v>
       </c>
     </row>
     <row r="78">
@@ -1617,7 +1617,7 @@
         <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>194</v>
+        <v>202</v>
       </c>
     </row>
     <row r="79">
@@ -1643,13 +1643,13 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="C80" t="n">
         <v>2</v>
       </c>
       <c r="D80" t="n">
-        <v>2761</v>
+        <v>2837</v>
       </c>
     </row>
     <row r="81">
@@ -1665,7 +1665,7 @@
         <v>1</v>
       </c>
       <c r="D81" t="n">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="82">
@@ -1675,13 +1675,13 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="83">
@@ -1691,13 +1691,13 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="C83" t="n">
         <v>2</v>
       </c>
       <c r="D83" t="n">
-        <v>3209</v>
+        <v>3404</v>
       </c>
     </row>
     <row r="84">
@@ -1713,7 +1713,7 @@
         <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="85">
@@ -1723,13 +1723,13 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C85" t="n">
         <v>6</v>
       </c>
       <c r="D85" t="n">
-        <v>807</v>
+        <v>834</v>
       </c>
     </row>
     <row r="86">
@@ -1745,7 +1745,7 @@
         <v>2</v>
       </c>
       <c r="D86" t="n">
-        <v>267</v>
+        <v>275</v>
       </c>
     </row>
     <row r="87">
@@ -1761,7 +1761,7 @@
         <v>1</v>
       </c>
       <c r="D87" t="n">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="88">
@@ -1771,13 +1771,13 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C88" t="n">
         <v>18</v>
       </c>
       <c r="D88" t="n">
-        <v>744</v>
+        <v>777</v>
       </c>
     </row>
     <row r="89">
@@ -1790,10 +1790,10 @@
         <v>45</v>
       </c>
       <c r="C89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D89" t="n">
-        <v>292</v>
+        <v>301</v>
       </c>
     </row>
     <row r="90">
@@ -1803,13 +1803,13 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C90" t="n">
         <v>3</v>
       </c>
       <c r="D90" t="n">
-        <v>506</v>
+        <v>559</v>
       </c>
     </row>
     <row r="91">
@@ -1825,7 +1825,7 @@
         <v>0</v>
       </c>
       <c r="D91" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="92">
@@ -1835,13 +1835,13 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="C92" t="n">
         <v>0</v>
       </c>
       <c r="D92" t="n">
-        <v>629</v>
+        <v>636</v>
       </c>
     </row>
     <row r="93">
@@ -1857,7 +1857,7 @@
         <v>1</v>
       </c>
       <c r="D93" t="n">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>

--- a/data/covid-county.xlsx
+++ b/data/covid-county.xlsx
@@ -401,7 +401,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>179</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3">
@@ -411,13 +411,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>718</v>
+        <v>743</v>
       </c>
       <c r="C3" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D3" t="n">
-        <v>4505</v>
+        <v>4676</v>
       </c>
     </row>
     <row r="4">
@@ -427,13 +427,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D4" t="n">
-        <v>682</v>
+        <v>706</v>
       </c>
     </row>
     <row r="5">
@@ -443,13 +443,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>130</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6">
@@ -465,7 +465,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>158</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7">
@@ -475,13 +475,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C7" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" t="n">
-        <v>1320</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="8">
@@ -491,13 +491,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9">
@@ -507,13 +507,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>601</v>
+        <v>610</v>
       </c>
     </row>
     <row r="10">
@@ -523,13 +523,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1442</v>
+        <v>1469</v>
       </c>
       <c r="C10" t="n">
         <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>2805</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="11">
@@ -539,13 +539,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="C11" t="n">
         <v>23</v>
       </c>
       <c r="D11" t="n">
-        <v>1981</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="12">
@@ -561,7 +561,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>284</v>
+        <v>291</v>
       </c>
     </row>
     <row r="13">
@@ -571,13 +571,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>585</v>
+        <v>600</v>
       </c>
     </row>
     <row r="14">
@@ -587,13 +587,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15">
@@ -603,13 +603,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C15" t="n">
         <v>15</v>
       </c>
       <c r="D15" t="n">
-        <v>410</v>
+        <v>423</v>
       </c>
     </row>
     <row r="16">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="C16" t="n">
         <v>13</v>
       </c>
       <c r="D16" t="n">
-        <v>446</v>
+        <v>464</v>
       </c>
     </row>
     <row r="17">
@@ -635,13 +635,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C17" t="n">
         <v>28</v>
       </c>
       <c r="D17" t="n">
-        <v>639</v>
+        <v>643</v>
       </c>
     </row>
     <row r="18">
@@ -657,7 +657,7 @@
         <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>283</v>
+        <v>299</v>
       </c>
     </row>
     <row r="19">
@@ -667,13 +667,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C19" t="n">
         <v>15</v>
       </c>
       <c r="D19" t="n">
-        <v>1859</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="20">
@@ -683,13 +683,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>303</v>
+        <v>316</v>
       </c>
     </row>
     <row r="21">
@@ -699,13 +699,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>361</v>
+        <v>387</v>
       </c>
       <c r="C21" t="n">
         <v>16</v>
       </c>
       <c r="D21" t="n">
-        <v>2729</v>
+        <v>2977</v>
       </c>
     </row>
     <row r="22">
@@ -715,13 +715,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C22" t="n">
         <v>4</v>
       </c>
       <c r="D22" t="n">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="23">
@@ -731,13 +731,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="C23" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D23" t="n">
-        <v>1277</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="24">
@@ -753,7 +753,7 @@
         <v>2</v>
       </c>
       <c r="D24" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="25">
@@ -769,7 +769,7 @@
         <v>7</v>
       </c>
       <c r="D25" t="n">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="26">
@@ -785,7 +785,7 @@
         <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>244</v>
+        <v>252</v>
       </c>
     </row>
     <row r="27">
@@ -801,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="28">
@@ -811,13 +811,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C28" t="n">
         <v>13</v>
       </c>
       <c r="D28" t="n">
-        <v>465</v>
+        <v>482</v>
       </c>
     </row>
     <row r="29">
@@ -827,13 +827,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="C29" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="n">
-        <v>500</v>
+        <v>545</v>
       </c>
     </row>
     <row r="30">
@@ -843,13 +843,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="C30" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D30" t="n">
-        <v>7875</v>
+        <v>7965</v>
       </c>
     </row>
     <row r="31">
@@ -859,13 +859,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="C31" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D31" t="n">
-        <v>1988</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="32">
@@ -875,13 +875,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C32" t="n">
         <v>11</v>
       </c>
       <c r="D32" t="n">
-        <v>670</v>
+        <v>684</v>
       </c>
     </row>
     <row r="33">
@@ -891,13 +891,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>883</v>
+        <v>893</v>
       </c>
       <c r="C33" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D33" t="n">
-        <v>3324</v>
+        <v>3610</v>
       </c>
     </row>
     <row r="34">
@@ -907,13 +907,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="C34" t="n">
         <v>2</v>
       </c>
       <c r="D34" t="n">
-        <v>694</v>
+        <v>754</v>
       </c>
     </row>
     <row r="35">
@@ -923,13 +923,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C35" t="n">
         <v>9</v>
       </c>
       <c r="D35" t="n">
-        <v>1393</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="36">
@@ -945,7 +945,7 @@
         <v>2</v>
       </c>
       <c r="D36" t="n">
-        <v>279</v>
+        <v>287</v>
       </c>
     </row>
     <row r="37">
@@ -955,13 +955,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188</v>
+        <v>219</v>
       </c>
       <c r="C37" t="n">
         <v>1</v>
       </c>
       <c r="D37" t="n">
-        <v>719</v>
+        <v>775</v>
       </c>
     </row>
     <row r="38">
@@ -977,7 +977,7 @@
         <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>555</v>
+        <v>572</v>
       </c>
     </row>
     <row r="39">
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="40">
@@ -1003,13 +1003,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>598</v>
+        <v>605</v>
       </c>
     </row>
     <row r="41">
@@ -1019,13 +1019,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C41" t="n">
         <v>3</v>
       </c>
       <c r="D41" t="n">
-        <v>290</v>
+        <v>296</v>
       </c>
     </row>
     <row r="42">
@@ -1035,13 +1035,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>746</v>
+        <v>754</v>
       </c>
       <c r="C42" t="n">
         <v>77</v>
       </c>
       <c r="D42" t="n">
-        <v>3850</v>
+        <v>3938</v>
       </c>
     </row>
     <row r="43">
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>362</v>
+        <v>369</v>
       </c>
     </row>
     <row r="44">
@@ -1073,7 +1073,7 @@
         <v>1</v>
       </c>
       <c r="D44" t="n">
-        <v>682</v>
+        <v>695</v>
       </c>
     </row>
     <row r="45">
@@ -1089,7 +1089,7 @@
         <v>2</v>
       </c>
       <c r="D45" t="n">
-        <v>191</v>
+        <v>196</v>
       </c>
     </row>
     <row r="46">
@@ -1099,13 +1099,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2233</v>
+        <v>2288</v>
       </c>
       <c r="C46" t="n">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="D46" t="n">
-        <v>10498</v>
+        <v>10961</v>
       </c>
     </row>
     <row r="47">
@@ -1115,13 +1115,13 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>284</v>
+        <v>303</v>
       </c>
       <c r="C47" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="n">
-        <v>1671</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="48">
@@ -1131,13 +1131,13 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C48" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D48" t="n">
-        <v>618</v>
+        <v>641</v>
       </c>
     </row>
     <row r="49">
@@ -1147,13 +1147,13 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>462</v>
+        <v>474</v>
       </c>
       <c r="C49" t="n">
         <v>56</v>
       </c>
       <c r="D49" t="n">
-        <v>2213</v>
+        <v>2256</v>
       </c>
     </row>
     <row r="50">
@@ -1163,13 +1163,13 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>6730</v>
+        <v>6914</v>
       </c>
       <c r="C50" t="n">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="D50" t="n">
-        <v>30485</v>
+        <v>31257</v>
       </c>
     </row>
     <row r="51">
@@ -1185,7 +1185,7 @@
         <v>1</v>
       </c>
       <c r="D51" t="n">
-        <v>531</v>
+        <v>587</v>
       </c>
     </row>
     <row r="52">
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="53">
@@ -1217,7 +1217,7 @@
         <v>1</v>
       </c>
       <c r="D53" t="n">
-        <v>619</v>
+        <v>641</v>
       </c>
     </row>
     <row r="54">
@@ -1227,13 +1227,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C54" t="n">
         <v>9</v>
       </c>
       <c r="D54" t="n">
-        <v>1479</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="55">
@@ -1243,13 +1243,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C55" t="n">
         <v>2</v>
       </c>
       <c r="D55" t="n">
-        <v>600</v>
+        <v>631</v>
       </c>
     </row>
     <row r="56">
@@ -1259,13 +1259,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="C56" t="n">
         <v>8</v>
       </c>
       <c r="D56" t="n">
-        <v>1459</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="57">
@@ -1281,7 +1281,7 @@
         <v>8</v>
       </c>
       <c r="D57" t="n">
-        <v>181</v>
+        <v>187</v>
       </c>
     </row>
     <row r="58">
@@ -1291,13 +1291,13 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C58" t="n">
         <v>14</v>
       </c>
       <c r="D58" t="n">
-        <v>429</v>
+        <v>457</v>
       </c>
     </row>
     <row r="59">
@@ -1313,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="60">
@@ -1323,13 +1323,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C60" t="n">
         <v>14</v>
       </c>
       <c r="D60" t="n">
-        <v>354</v>
+        <v>363</v>
       </c>
     </row>
     <row r="61">
@@ -1345,7 +1345,7 @@
         <v>1</v>
       </c>
       <c r="D61" t="n">
-        <v>330</v>
+        <v>339</v>
       </c>
     </row>
     <row r="62">
@@ -1361,7 +1361,7 @@
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="63">
@@ -1371,13 +1371,13 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>177</v>
+        <v>187</v>
       </c>
     </row>
     <row r="64">
@@ -1393,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="65">
@@ -1403,13 +1403,13 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="C65" t="n">
         <v>7</v>
       </c>
       <c r="D65" t="n">
-        <v>2090</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="66">
@@ -1419,13 +1419,13 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>173</v>
+        <v>182</v>
       </c>
     </row>
     <row r="67">
@@ -1435,13 +1435,13 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>258</v>
+        <v>275</v>
       </c>
     </row>
     <row r="68">
@@ -1451,13 +1451,13 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C68" t="n">
         <v>5</v>
       </c>
       <c r="D68" t="n">
-        <v>673</v>
+        <v>697</v>
       </c>
     </row>
     <row r="69">
@@ -1473,7 +1473,7 @@
         <v>2</v>
       </c>
       <c r="D69" t="n">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="70">
@@ -1483,13 +1483,13 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C70" t="n">
         <v>6</v>
       </c>
       <c r="D70" t="n">
-        <v>527</v>
+        <v>532</v>
       </c>
     </row>
     <row r="71">
@@ -1505,7 +1505,7 @@
         <v>2</v>
       </c>
       <c r="D71" t="n">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="72">
@@ -1515,13 +1515,13 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C72" t="n">
         <v>2</v>
       </c>
       <c r="D72" t="n">
-        <v>465</v>
+        <v>509</v>
       </c>
     </row>
     <row r="73">
@@ -1531,13 +1531,13 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C73" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D73" t="n">
-        <v>990</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="74">
@@ -1553,7 +1553,7 @@
         <v>1</v>
       </c>
       <c r="D74" t="n">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="75">
@@ -1563,13 +1563,13 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>714</v>
+        <v>730</v>
       </c>
       <c r="C75" t="n">
         <v>24</v>
       </c>
       <c r="D75" t="n">
-        <v>4180</v>
+        <v>4505</v>
       </c>
     </row>
     <row r="76">
@@ -1579,13 +1579,13 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C76" t="n">
         <v>2</v>
       </c>
       <c r="D76" t="n">
-        <v>232</v>
+        <v>247</v>
       </c>
     </row>
     <row r="77">
@@ -1595,13 +1595,13 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C77" t="n">
         <v>1</v>
       </c>
       <c r="D77" t="n">
-        <v>280</v>
+        <v>300</v>
       </c>
     </row>
     <row r="78">
@@ -1611,13 +1611,13 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>202</v>
+        <v>212</v>
       </c>
     </row>
     <row r="79">
@@ -1633,7 +1633,7 @@
         <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="80">
@@ -1643,13 +1643,13 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="C80" t="n">
         <v>2</v>
       </c>
       <c r="D80" t="n">
-        <v>2837</v>
+        <v>2952</v>
       </c>
     </row>
     <row r="81">
@@ -1665,7 +1665,7 @@
         <v>1</v>
       </c>
       <c r="D81" t="n">
-        <v>165</v>
+        <v>174</v>
       </c>
     </row>
     <row r="82">
@@ -1681,7 +1681,7 @@
         <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="83">
@@ -1691,13 +1691,13 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="C83" t="n">
         <v>2</v>
       </c>
       <c r="D83" t="n">
-        <v>3404</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="84">
@@ -1713,7 +1713,7 @@
         <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="85">
@@ -1723,13 +1723,13 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C85" t="n">
         <v>6</v>
       </c>
       <c r="D85" t="n">
-        <v>834</v>
+        <v>858</v>
       </c>
     </row>
     <row r="86">
@@ -1739,13 +1739,13 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C86" t="n">
         <v>2</v>
       </c>
       <c r="D86" t="n">
-        <v>275</v>
+        <v>299</v>
       </c>
     </row>
     <row r="87">
@@ -1771,13 +1771,13 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="C88" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D88" t="n">
-        <v>777</v>
+        <v>803</v>
       </c>
     </row>
     <row r="89">
@@ -1793,7 +1793,7 @@
         <v>1</v>
       </c>
       <c r="D89" t="n">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="90">
@@ -1803,13 +1803,13 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C90" t="n">
         <v>3</v>
       </c>
       <c r="D90" t="n">
-        <v>559</v>
+        <v>584</v>
       </c>
     </row>
     <row r="91">
@@ -1819,13 +1819,13 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C91" t="n">
         <v>0</v>
       </c>
       <c r="D91" t="n">
-        <v>156</v>
+        <v>164</v>
       </c>
     </row>
     <row r="92">
@@ -1835,13 +1835,13 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="C92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D92" t="n">
-        <v>636</v>
+        <v>706</v>
       </c>
     </row>
     <row r="93">
@@ -1857,7 +1857,7 @@
         <v>1</v>
       </c>
       <c r="D93" t="n">
-        <v>229</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>

--- a/data/covid-county.xlsx
+++ b/data/covid-county.xlsx
@@ -401,7 +401,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>185</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3">
@@ -411,13 +411,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>743</v>
+        <v>781</v>
       </c>
       <c r="C3" t="n">
         <v>58</v>
       </c>
       <c r="D3" t="n">
-        <v>4676</v>
+        <v>4866</v>
       </c>
     </row>
     <row r="4">
@@ -427,13 +427,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>316</v>
+        <v>331</v>
       </c>
       <c r="C4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" t="n">
-        <v>706</v>
+        <v>753</v>
       </c>
     </row>
     <row r="5">
@@ -449,7 +449,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6">
@@ -459,13 +459,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>164</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7">
@@ -475,13 +475,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C7" t="n">
         <v>27</v>
       </c>
       <c r="D7" t="n">
-        <v>1347</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="8">
@@ -497,7 +497,7 @@
         <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9">
@@ -507,13 +507,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>610</v>
+        <v>619</v>
       </c>
     </row>
     <row r="10">
@@ -523,13 +523,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1469</v>
+        <v>1497</v>
       </c>
       <c r="C10" t="n">
         <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>2861</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="11">
@@ -539,13 +539,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="C11" t="n">
         <v>23</v>
       </c>
       <c r="D11" t="n">
-        <v>2023</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="12">
@@ -555,13 +555,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>291</v>
+        <v>296</v>
       </c>
     </row>
     <row r="13">
@@ -571,13 +571,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>600</v>
+        <v>619</v>
       </c>
     </row>
     <row r="14">
@@ -593,7 +593,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>168</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15">
@@ -609,7 +609,7 @@
         <v>15</v>
       </c>
       <c r="D15" t="n">
-        <v>423</v>
+        <v>437</v>
       </c>
     </row>
     <row r="16">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C16" t="n">
         <v>13</v>
       </c>
       <c r="D16" t="n">
-        <v>464</v>
+        <v>493</v>
       </c>
     </row>
     <row r="17">
@@ -635,13 +635,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C17" t="n">
         <v>28</v>
       </c>
       <c r="D17" t="n">
-        <v>643</v>
+        <v>652</v>
       </c>
     </row>
     <row r="18">
@@ -657,7 +657,7 @@
         <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>299</v>
+        <v>306</v>
       </c>
     </row>
     <row r="19">
@@ -667,13 +667,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C19" t="n">
         <v>15</v>
       </c>
       <c r="D19" t="n">
-        <v>1920</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="20">
@@ -683,13 +683,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>316</v>
+        <v>328</v>
       </c>
     </row>
     <row r="21">
@@ -699,13 +699,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>387</v>
+        <v>410</v>
       </c>
       <c r="C21" t="n">
         <v>16</v>
       </c>
       <c r="D21" t="n">
-        <v>2977</v>
+        <v>3190</v>
       </c>
     </row>
     <row r="22">
@@ -721,7 +721,7 @@
         <v>4</v>
       </c>
       <c r="D22" t="n">
-        <v>239</v>
+        <v>250</v>
       </c>
     </row>
     <row r="23">
@@ -731,13 +731,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C23" t="n">
         <v>28</v>
       </c>
       <c r="D23" t="n">
-        <v>1308</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="24">
@@ -753,7 +753,7 @@
         <v>2</v>
       </c>
       <c r="D24" t="n">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="25">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C25" t="n">
         <v>7</v>
       </c>
       <c r="D25" t="n">
-        <v>259</v>
+        <v>268</v>
       </c>
     </row>
     <row r="26">
@@ -785,7 +785,7 @@
         <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>252</v>
+        <v>261</v>
       </c>
     </row>
     <row r="27">
@@ -801,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="28">
@@ -814,10 +814,10 @@
         <v>151</v>
       </c>
       <c r="C28" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D28" t="n">
-        <v>482</v>
+        <v>498</v>
       </c>
     </row>
     <row r="29">
@@ -827,13 +827,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="C29" t="n">
         <v>9</v>
       </c>
       <c r="D29" t="n">
-        <v>545</v>
+        <v>571</v>
       </c>
     </row>
     <row r="30">
@@ -843,13 +843,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>894</v>
+        <v>902</v>
       </c>
       <c r="C30" t="n">
         <v>78</v>
       </c>
       <c r="D30" t="n">
-        <v>7965</v>
+        <v>8051</v>
       </c>
     </row>
     <row r="31">
@@ -859,13 +859,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="C31" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D31" t="n">
-        <v>2018</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="32">
@@ -875,13 +875,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C32" t="n">
         <v>11</v>
       </c>
       <c r="D32" t="n">
-        <v>684</v>
+        <v>700</v>
       </c>
     </row>
     <row r="33">
@@ -891,13 +891,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>893</v>
+        <v>927</v>
       </c>
       <c r="C33" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D33" t="n">
-        <v>3610</v>
+        <v>3850</v>
       </c>
     </row>
     <row r="34">
@@ -907,13 +907,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="C34" t="n">
         <v>2</v>
       </c>
       <c r="D34" t="n">
-        <v>754</v>
+        <v>809</v>
       </c>
     </row>
     <row r="35">
@@ -923,13 +923,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="C35" t="n">
         <v>9</v>
       </c>
       <c r="D35" t="n">
-        <v>1415</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="36">
@@ -939,13 +939,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C36" t="n">
         <v>2</v>
       </c>
       <c r="D36" t="n">
-        <v>287</v>
+        <v>300</v>
       </c>
     </row>
     <row r="37">
@@ -955,13 +955,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="C37" t="n">
         <v>1</v>
       </c>
       <c r="D37" t="n">
-        <v>775</v>
+        <v>948</v>
       </c>
     </row>
     <row r="38">
@@ -971,13 +971,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C38" t="n">
         <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>572</v>
+        <v>592</v>
       </c>
     </row>
     <row r="39">
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="40">
@@ -1003,13 +1003,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>605</v>
+        <v>761</v>
       </c>
     </row>
     <row r="41">
@@ -1019,13 +1019,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C41" t="n">
         <v>3</v>
       </c>
       <c r="D41" t="n">
-        <v>296</v>
+        <v>316</v>
       </c>
     </row>
     <row r="42">
@@ -1035,13 +1035,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>754</v>
+        <v>769</v>
       </c>
       <c r="C42" t="n">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D42" t="n">
-        <v>3938</v>
+        <v>4044</v>
       </c>
     </row>
     <row r="43">
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>369</v>
+        <v>380</v>
       </c>
     </row>
     <row r="44">
@@ -1073,7 +1073,7 @@
         <v>1</v>
       </c>
       <c r="D44" t="n">
-        <v>695</v>
+        <v>724</v>
       </c>
     </row>
     <row r="45">
@@ -1089,7 +1089,7 @@
         <v>2</v>
       </c>
       <c r="D45" t="n">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="46">
@@ -1099,13 +1099,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2288</v>
+        <v>2359</v>
       </c>
       <c r="C46" t="n">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="D46" t="n">
-        <v>10961</v>
+        <v>11662</v>
       </c>
     </row>
     <row r="47">
@@ -1115,13 +1115,13 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="C47" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D47" t="n">
-        <v>1757</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="48">
@@ -1131,13 +1131,13 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C48" t="n">
         <v>15</v>
       </c>
       <c r="D48" t="n">
-        <v>641</v>
+        <v>661</v>
       </c>
     </row>
     <row r="49">
@@ -1147,13 +1147,13 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="C49" t="n">
         <v>56</v>
       </c>
       <c r="D49" t="n">
-        <v>2256</v>
+        <v>2298</v>
       </c>
     </row>
     <row r="50">
@@ -1163,13 +1163,13 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>6914</v>
+        <v>7078</v>
       </c>
       <c r="C50" t="n">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="D50" t="n">
-        <v>31257</v>
+        <v>32134</v>
       </c>
     </row>
     <row r="51">
@@ -1185,7 +1185,7 @@
         <v>1</v>
       </c>
       <c r="D51" t="n">
-        <v>587</v>
+        <v>608</v>
       </c>
     </row>
     <row r="52">
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="53">
@@ -1211,13 +1211,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C53" t="n">
         <v>1</v>
       </c>
       <c r="D53" t="n">
-        <v>641</v>
+        <v>660</v>
       </c>
     </row>
     <row r="54">
@@ -1227,13 +1227,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C54" t="n">
         <v>9</v>
       </c>
       <c r="D54" t="n">
-        <v>1516</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="55">
@@ -1243,13 +1243,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C55" t="n">
         <v>2</v>
       </c>
       <c r="D55" t="n">
-        <v>631</v>
+        <v>646</v>
       </c>
     </row>
     <row r="56">
@@ -1259,13 +1259,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C56" t="n">
         <v>8</v>
       </c>
       <c r="D56" t="n">
-        <v>1510</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="57">
@@ -1275,13 +1275,13 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C57" t="n">
         <v>8</v>
       </c>
       <c r="D57" t="n">
-        <v>187</v>
+        <v>193</v>
       </c>
     </row>
     <row r="58">
@@ -1291,13 +1291,13 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C58" t="n">
         <v>14</v>
       </c>
       <c r="D58" t="n">
-        <v>457</v>
+        <v>477</v>
       </c>
     </row>
     <row r="59">
@@ -1313,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="60">
@@ -1323,13 +1323,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C60" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D60" t="n">
-        <v>363</v>
+        <v>380</v>
       </c>
     </row>
     <row r="61">
@@ -1339,13 +1339,13 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C61" t="n">
         <v>1</v>
       </c>
       <c r="D61" t="n">
-        <v>339</v>
+        <v>351</v>
       </c>
     </row>
     <row r="62">
@@ -1355,13 +1355,13 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="63">
@@ -1371,13 +1371,13 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>187</v>
+        <v>198</v>
       </c>
     </row>
     <row r="64">
@@ -1403,13 +1403,13 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="C65" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D65" t="n">
-        <v>2204</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="66">
@@ -1425,7 +1425,7 @@
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>182</v>
+        <v>200</v>
       </c>
     </row>
     <row r="67">
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>275</v>
+        <v>281</v>
       </c>
     </row>
     <row r="68">
@@ -1451,13 +1451,13 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C68" t="n">
         <v>5</v>
       </c>
       <c r="D68" t="n">
-        <v>697</v>
+        <v>720</v>
       </c>
     </row>
     <row r="69">
@@ -1467,13 +1467,13 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C69" t="n">
         <v>2</v>
       </c>
       <c r="D69" t="n">
-        <v>274</v>
+        <v>287</v>
       </c>
     </row>
     <row r="70">
@@ -1489,7 +1489,7 @@
         <v>6</v>
       </c>
       <c r="D70" t="n">
-        <v>532</v>
+        <v>559</v>
       </c>
     </row>
     <row r="71">
@@ -1505,7 +1505,7 @@
         <v>2</v>
       </c>
       <c r="D71" t="n">
-        <v>248</v>
+        <v>253</v>
       </c>
     </row>
     <row r="72">
@@ -1515,13 +1515,13 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C72" t="n">
         <v>2</v>
       </c>
       <c r="D72" t="n">
-        <v>509</v>
+        <v>871</v>
       </c>
     </row>
     <row r="73">
@@ -1531,13 +1531,13 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="C73" t="n">
         <v>15</v>
       </c>
       <c r="D73" t="n">
-        <v>1017</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="74">
@@ -1547,13 +1547,13 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C74" t="n">
         <v>1</v>
       </c>
       <c r="D74" t="n">
-        <v>147</v>
+        <v>156</v>
       </c>
     </row>
     <row r="75">
@@ -1563,13 +1563,13 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>730</v>
+        <v>773</v>
       </c>
       <c r="C75" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D75" t="n">
-        <v>4505</v>
+        <v>4885</v>
       </c>
     </row>
     <row r="76">
@@ -1579,13 +1579,13 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C76" t="n">
         <v>2</v>
       </c>
       <c r="D76" t="n">
-        <v>247</v>
+        <v>263</v>
       </c>
     </row>
     <row r="77">
@@ -1595,13 +1595,13 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C77" t="n">
         <v>1</v>
       </c>
       <c r="D77" t="n">
-        <v>300</v>
+        <v>314</v>
       </c>
     </row>
     <row r="78">
@@ -1611,13 +1611,13 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>212</v>
+        <v>221</v>
       </c>
     </row>
     <row r="79">
@@ -1633,7 +1633,7 @@
         <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>132</v>
+        <v>153</v>
       </c>
     </row>
     <row r="80">
@@ -1643,13 +1643,13 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="C80" t="n">
         <v>2</v>
       </c>
       <c r="D80" t="n">
-        <v>2952</v>
+        <v>3057</v>
       </c>
     </row>
     <row r="81">
@@ -1665,7 +1665,7 @@
         <v>1</v>
       </c>
       <c r="D81" t="n">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="82">
@@ -1681,7 +1681,7 @@
         <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="83">
@@ -1691,13 +1691,13 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="C83" t="n">
         <v>2</v>
       </c>
       <c r="D83" t="n">
-        <v>3500</v>
+        <v>3720</v>
       </c>
     </row>
     <row r="84">
@@ -1713,7 +1713,7 @@
         <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="85">
@@ -1723,13 +1723,13 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C85" t="n">
         <v>6</v>
       </c>
       <c r="D85" t="n">
-        <v>858</v>
+        <v>903</v>
       </c>
     </row>
     <row r="86">
@@ -1745,7 +1745,7 @@
         <v>2</v>
       </c>
       <c r="D86" t="n">
-        <v>299</v>
+        <v>310</v>
       </c>
     </row>
     <row r="87">
@@ -1761,7 +1761,7 @@
         <v>1</v>
       </c>
       <c r="D87" t="n">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="88">
@@ -1771,13 +1771,13 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C88" t="n">
         <v>19</v>
       </c>
       <c r="D88" t="n">
-        <v>803</v>
+        <v>844</v>
       </c>
     </row>
     <row r="89">
@@ -1793,7 +1793,7 @@
         <v>1</v>
       </c>
       <c r="D89" t="n">
-        <v>303</v>
+        <v>324</v>
       </c>
     </row>
     <row r="90">
@@ -1803,13 +1803,13 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
-        <v>584</v>
+        <v>624</v>
       </c>
     </row>
     <row r="91">
@@ -1825,7 +1825,7 @@
         <v>0</v>
       </c>
       <c r="D91" t="n">
-        <v>164</v>
+        <v>172</v>
       </c>
     </row>
     <row r="92">
@@ -1835,13 +1835,13 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="C92" t="n">
         <v>1</v>
       </c>
       <c r="D92" t="n">
-        <v>706</v>
+        <v>729</v>
       </c>
     </row>
     <row r="93">
@@ -1857,7 +1857,7 @@
         <v>1</v>
       </c>
       <c r="D93" t="n">
-        <v>235</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>

--- a/data/covid-county.xlsx
+++ b/data/covid-county.xlsx
@@ -401,7 +401,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>197</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3">
@@ -411,13 +411,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>781</v>
+        <v>800</v>
       </c>
       <c r="C3" t="n">
         <v>58</v>
       </c>
       <c r="D3" t="n">
-        <v>4866</v>
+        <v>5019</v>
       </c>
     </row>
     <row r="4">
@@ -427,13 +427,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="C4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="n">
-        <v>753</v>
+        <v>825</v>
       </c>
     </row>
     <row r="5">
@@ -449,7 +449,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6">
@@ -465,7 +465,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>176</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7">
@@ -475,13 +475,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C7" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D7" t="n">
-        <v>1374</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="8">
@@ -497,7 +497,7 @@
         <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9">
@@ -507,13 +507,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C9" t="n">
         <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>619</v>
+        <v>642</v>
       </c>
     </row>
     <row r="10">
@@ -523,13 +523,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1497</v>
+        <v>1507</v>
       </c>
       <c r="C10" t="n">
         <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>2885</v>
+        <v>2937</v>
       </c>
     </row>
     <row r="11">
@@ -539,13 +539,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>358</v>
+        <v>374</v>
       </c>
       <c r="C11" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D11" t="n">
-        <v>2082</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="12">
@@ -561,7 +561,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>296</v>
+        <v>317</v>
       </c>
     </row>
     <row r="13">
@@ -571,13 +571,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>619</v>
+        <v>659</v>
       </c>
     </row>
     <row r="14">
@@ -593,7 +593,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15">
@@ -609,7 +609,7 @@
         <v>15</v>
       </c>
       <c r="D15" t="n">
-        <v>437</v>
+        <v>447</v>
       </c>
     </row>
     <row r="16">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C16" t="n">
         <v>13</v>
       </c>
       <c r="D16" t="n">
-        <v>493</v>
+        <v>513</v>
       </c>
     </row>
     <row r="17">
@@ -635,13 +635,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C17" t="n">
         <v>28</v>
       </c>
       <c r="D17" t="n">
-        <v>652</v>
+        <v>658</v>
       </c>
     </row>
     <row r="18">
@@ -657,7 +657,7 @@
         <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>306</v>
+        <v>318</v>
       </c>
     </row>
     <row r="19">
@@ -667,13 +667,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C19" t="n">
         <v>15</v>
       </c>
       <c r="D19" t="n">
-        <v>1979</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="20">
@@ -683,13 +683,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>328</v>
+        <v>337</v>
       </c>
     </row>
     <row r="21">
@@ -699,13 +699,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>410</v>
+        <v>436</v>
       </c>
       <c r="C21" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D21" t="n">
-        <v>3190</v>
+        <v>3448</v>
       </c>
     </row>
     <row r="22">
@@ -715,13 +715,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C22" t="n">
         <v>4</v>
       </c>
       <c r="D22" t="n">
-        <v>250</v>
+        <v>267</v>
       </c>
     </row>
     <row r="23">
@@ -731,13 +731,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C23" t="n">
         <v>28</v>
       </c>
       <c r="D23" t="n">
-        <v>1338</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="24">
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C24" t="n">
         <v>2</v>
       </c>
       <c r="D24" t="n">
-        <v>197</v>
+        <v>207</v>
       </c>
     </row>
     <row r="25">
@@ -769,7 +769,7 @@
         <v>7</v>
       </c>
       <c r="D25" t="n">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="26">
@@ -779,13 +779,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C26" t="n">
         <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>261</v>
+        <v>273</v>
       </c>
     </row>
     <row r="27">
@@ -801,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>212</v>
+        <v>221</v>
       </c>
     </row>
     <row r="28">
@@ -811,13 +811,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C28" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D28" t="n">
-        <v>498</v>
+        <v>524</v>
       </c>
     </row>
     <row r="29">
@@ -827,13 +827,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C29" t="n">
         <v>9</v>
       </c>
       <c r="D29" t="n">
-        <v>571</v>
+        <v>586</v>
       </c>
     </row>
     <row r="30">
@@ -843,13 +843,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>902</v>
+        <v>920</v>
       </c>
       <c r="C30" t="n">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D30" t="n">
-        <v>8051</v>
+        <v>8296</v>
       </c>
     </row>
     <row r="31">
@@ -859,13 +859,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>246</v>
+        <v>264</v>
       </c>
       <c r="C31" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D31" t="n">
-        <v>2058</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="32">
@@ -875,13 +875,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C32" t="n">
         <v>11</v>
       </c>
       <c r="D32" t="n">
-        <v>700</v>
+        <v>716</v>
       </c>
     </row>
     <row r="33">
@@ -891,13 +891,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>927</v>
+        <v>951</v>
       </c>
       <c r="C33" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D33" t="n">
-        <v>3850</v>
+        <v>4002</v>
       </c>
     </row>
     <row r="34">
@@ -907,13 +907,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C34" t="n">
         <v>2</v>
       </c>
       <c r="D34" t="n">
-        <v>809</v>
+        <v>928</v>
       </c>
     </row>
     <row r="35">
@@ -923,13 +923,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="C35" t="n">
         <v>9</v>
       </c>
       <c r="D35" t="n">
-        <v>1446</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="36">
@@ -945,7 +945,7 @@
         <v>2</v>
       </c>
       <c r="D36" t="n">
-        <v>300</v>
+        <v>318</v>
       </c>
     </row>
     <row r="37">
@@ -955,13 +955,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>251</v>
+        <v>274</v>
       </c>
       <c r="C37" t="n">
         <v>1</v>
       </c>
       <c r="D37" t="n">
-        <v>948</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="38">
@@ -971,13 +971,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C38" t="n">
         <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>592</v>
+        <v>614</v>
       </c>
     </row>
     <row r="39">
@@ -987,13 +987,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>202</v>
+        <v>213</v>
       </c>
     </row>
     <row r="40">
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>761</v>
+        <v>779</v>
       </c>
     </row>
     <row r="41">
@@ -1019,13 +1019,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C41" t="n">
         <v>3</v>
       </c>
       <c r="D41" t="n">
-        <v>316</v>
+        <v>336</v>
       </c>
     </row>
     <row r="42">
@@ -1035,13 +1035,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>769</v>
+        <v>790</v>
       </c>
       <c r="C42" t="n">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D42" t="n">
-        <v>4044</v>
+        <v>4202</v>
       </c>
     </row>
     <row r="43">
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="44">
@@ -1073,7 +1073,7 @@
         <v>1</v>
       </c>
       <c r="D44" t="n">
-        <v>724</v>
+        <v>743</v>
       </c>
     </row>
     <row r="45">
@@ -1083,13 +1083,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C45" t="n">
         <v>2</v>
       </c>
       <c r="D45" t="n">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="46">
@@ -1099,13 +1099,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2359</v>
+        <v>2392</v>
       </c>
       <c r="C46" t="n">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D46" t="n">
-        <v>11662</v>
+        <v>11996</v>
       </c>
     </row>
     <row r="47">
@@ -1115,13 +1115,13 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="C47" t="n">
         <v>11</v>
       </c>
       <c r="D47" t="n">
-        <v>1845</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="48">
@@ -1131,13 +1131,13 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C48" t="n">
         <v>15</v>
       </c>
       <c r="D48" t="n">
-        <v>661</v>
+        <v>690</v>
       </c>
     </row>
     <row r="49">
@@ -1147,13 +1147,13 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>479</v>
+        <v>497</v>
       </c>
       <c r="C49" t="n">
         <v>56</v>
       </c>
       <c r="D49" t="n">
-        <v>2298</v>
+        <v>2413</v>
       </c>
     </row>
     <row r="50">
@@ -1163,13 +1163,13 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>7078</v>
+        <v>7245</v>
       </c>
       <c r="C50" t="n">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="D50" t="n">
-        <v>32134</v>
+        <v>33212</v>
       </c>
     </row>
     <row r="51">
@@ -1179,13 +1179,13 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C51" t="n">
         <v>1</v>
       </c>
       <c r="D51" t="n">
-        <v>608</v>
+        <v>643</v>
       </c>
     </row>
     <row r="52">
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="53">
@@ -1211,13 +1211,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C53" t="n">
         <v>1</v>
       </c>
       <c r="D53" t="n">
-        <v>660</v>
+        <v>683</v>
       </c>
     </row>
     <row r="54">
@@ -1227,13 +1227,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C54" t="n">
         <v>9</v>
       </c>
       <c r="D54" t="n">
-        <v>1570</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="55">
@@ -1243,13 +1243,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
-        <v>646</v>
+        <v>682</v>
       </c>
     </row>
     <row r="56">
@@ -1259,13 +1259,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="C56" t="n">
         <v>8</v>
       </c>
       <c r="D56" t="n">
-        <v>1545</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="57">
@@ -1281,7 +1281,7 @@
         <v>8</v>
       </c>
       <c r="D57" t="n">
-        <v>193</v>
+        <v>198</v>
       </c>
     </row>
     <row r="58">
@@ -1291,13 +1291,13 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C58" t="n">
         <v>14</v>
       </c>
       <c r="D58" t="n">
-        <v>477</v>
+        <v>492</v>
       </c>
     </row>
     <row r="59">
@@ -1307,13 +1307,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="60">
@@ -1323,13 +1323,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C60" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D60" t="n">
-        <v>380</v>
+        <v>393</v>
       </c>
     </row>
     <row r="61">
@@ -1339,13 +1339,13 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C61" t="n">
         <v>1</v>
       </c>
       <c r="D61" t="n">
-        <v>351</v>
+        <v>371</v>
       </c>
     </row>
     <row r="62">
@@ -1355,13 +1355,13 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>173</v>
+        <v>180</v>
       </c>
     </row>
     <row r="63">
@@ -1371,13 +1371,13 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="64">
@@ -1393,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="65">
@@ -1403,13 +1403,13 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="C65" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="n">
-        <v>2266</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="66">
@@ -1425,7 +1425,7 @@
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="67">
@@ -1435,13 +1435,13 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>281</v>
+        <v>297</v>
       </c>
     </row>
     <row r="68">
@@ -1451,13 +1451,13 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C68" t="n">
         <v>5</v>
       </c>
       <c r="D68" t="n">
-        <v>720</v>
+        <v>756</v>
       </c>
     </row>
     <row r="69">
@@ -1473,7 +1473,7 @@
         <v>2</v>
       </c>
       <c r="D69" t="n">
-        <v>287</v>
+        <v>300</v>
       </c>
     </row>
     <row r="70">
@@ -1489,7 +1489,7 @@
         <v>6</v>
       </c>
       <c r="D70" t="n">
-        <v>559</v>
+        <v>572</v>
       </c>
     </row>
     <row r="71">
@@ -1505,7 +1505,7 @@
         <v>2</v>
       </c>
       <c r="D71" t="n">
-        <v>253</v>
+        <v>265</v>
       </c>
     </row>
     <row r="72">
@@ -1515,13 +1515,13 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C72" t="n">
         <v>2</v>
       </c>
       <c r="D72" t="n">
-        <v>871</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="73">
@@ -1531,13 +1531,13 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="C73" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D73" t="n">
-        <v>1038</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="74">
@@ -1553,7 +1553,7 @@
         <v>1</v>
       </c>
       <c r="D74" t="n">
-        <v>156</v>
+        <v>163</v>
       </c>
     </row>
     <row r="75">
@@ -1563,13 +1563,13 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>773</v>
+        <v>785</v>
       </c>
       <c r="C75" t="n">
         <v>25</v>
       </c>
       <c r="D75" t="n">
-        <v>4885</v>
+        <v>5250</v>
       </c>
     </row>
     <row r="76">
@@ -1585,7 +1585,7 @@
         <v>2</v>
       </c>
       <c r="D76" t="n">
-        <v>263</v>
+        <v>270</v>
       </c>
     </row>
     <row r="77">
@@ -1595,13 +1595,13 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
-        <v>314</v>
+        <v>340</v>
       </c>
     </row>
     <row r="78">
@@ -1611,13 +1611,13 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>221</v>
+        <v>236</v>
       </c>
     </row>
     <row r="79">
@@ -1627,7 +1627,7 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
@@ -1643,13 +1643,13 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>207</v>
+        <v>225</v>
       </c>
       <c r="C80" t="n">
         <v>2</v>
       </c>
       <c r="D80" t="n">
-        <v>3057</v>
+        <v>3348</v>
       </c>
     </row>
     <row r="81">
@@ -1659,13 +1659,13 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C81" t="n">
         <v>1</v>
       </c>
       <c r="D81" t="n">
-        <v>178</v>
+        <v>192</v>
       </c>
     </row>
     <row r="82">
@@ -1681,7 +1681,7 @@
         <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="83">
@@ -1691,13 +1691,13 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="C83" t="n">
         <v>2</v>
       </c>
       <c r="D83" t="n">
-        <v>3720</v>
+        <v>3789</v>
       </c>
     </row>
     <row r="84">
@@ -1713,7 +1713,7 @@
         <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>135</v>
+        <v>144</v>
       </c>
     </row>
     <row r="85">
@@ -1723,13 +1723,13 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C85" t="n">
         <v>6</v>
       </c>
       <c r="D85" t="n">
-        <v>903</v>
+        <v>979</v>
       </c>
     </row>
     <row r="86">
@@ -1745,7 +1745,7 @@
         <v>2</v>
       </c>
       <c r="D86" t="n">
-        <v>310</v>
+        <v>326</v>
       </c>
     </row>
     <row r="87">
@@ -1761,7 +1761,7 @@
         <v>1</v>
       </c>
       <c r="D87" t="n">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="88">
@@ -1771,13 +1771,13 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C88" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D88" t="n">
-        <v>844</v>
+        <v>872</v>
       </c>
     </row>
     <row r="89">
@@ -1787,13 +1787,13 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C89" t="n">
         <v>1</v>
       </c>
       <c r="D89" t="n">
-        <v>324</v>
+        <v>348</v>
       </c>
     </row>
     <row r="90">
@@ -1803,13 +1803,13 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C90" t="n">
         <v>5</v>
       </c>
       <c r="D90" t="n">
-        <v>624</v>
+        <v>661</v>
       </c>
     </row>
     <row r="91">
@@ -1819,13 +1819,13 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C91" t="n">
         <v>0</v>
       </c>
       <c r="D91" t="n">
-        <v>172</v>
+        <v>179</v>
       </c>
     </row>
     <row r="92">
@@ -1835,13 +1835,13 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="C92" t="n">
         <v>1</v>
       </c>
       <c r="D92" t="n">
-        <v>729</v>
+        <v>768</v>
       </c>
     </row>
     <row r="93">
@@ -1857,7 +1857,7 @@
         <v>1</v>
       </c>
       <c r="D93" t="n">
-        <v>245</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>

--- a/data/covid-county.xlsx
+++ b/data/covid-county.xlsx
@@ -401,7 +401,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>203</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3">
@@ -411,13 +411,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>800</v>
+        <v>816</v>
       </c>
       <c r="C3" t="n">
         <v>58</v>
       </c>
       <c r="D3" t="n">
-        <v>5019</v>
+        <v>5173</v>
       </c>
     </row>
     <row r="4">
@@ -427,13 +427,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="C4" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D4" t="n">
-        <v>825</v>
+        <v>879</v>
       </c>
     </row>
     <row r="5">
@@ -449,7 +449,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6">
@@ -459,13 +459,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>189</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7">
@@ -475,13 +475,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="C7" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D7" t="n">
-        <v>1411</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="8">
@@ -491,13 +491,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9">
@@ -513,7 +513,7 @@
         <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>642</v>
+        <v>665</v>
       </c>
     </row>
     <row r="10">
@@ -523,13 +523,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1507</v>
+        <v>1520</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>2937</v>
+        <v>3008</v>
       </c>
     </row>
     <row r="11">
@@ -539,13 +539,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="C11" t="n">
         <v>25</v>
       </c>
       <c r="D11" t="n">
-        <v>2223</v>
+        <v>2274</v>
       </c>
     </row>
     <row r="12">
@@ -561,7 +561,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>317</v>
+        <v>325</v>
       </c>
     </row>
     <row r="13">
@@ -571,13 +571,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>659</v>
+        <v>692</v>
       </c>
     </row>
     <row r="14">
@@ -593,7 +593,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15">
@@ -609,7 +609,7 @@
         <v>15</v>
       </c>
       <c r="D15" t="n">
-        <v>447</v>
+        <v>452</v>
       </c>
     </row>
     <row r="16">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C16" t="n">
         <v>13</v>
       </c>
       <c r="D16" t="n">
-        <v>513</v>
+        <v>528</v>
       </c>
     </row>
     <row r="17">
@@ -641,7 +641,7 @@
         <v>28</v>
       </c>
       <c r="D17" t="n">
-        <v>658</v>
+        <v>662</v>
       </c>
     </row>
     <row r="18">
@@ -657,7 +657,7 @@
         <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>318</v>
+        <v>321</v>
       </c>
     </row>
     <row r="19">
@@ -667,13 +667,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="C19" t="n">
         <v>15</v>
       </c>
       <c r="D19" t="n">
-        <v>2078</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="20">
@@ -683,13 +683,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>337</v>
+        <v>354</v>
       </c>
     </row>
     <row r="21">
@@ -699,13 +699,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>436</v>
+        <v>484</v>
       </c>
       <c r="C21" t="n">
         <v>18</v>
       </c>
       <c r="D21" t="n">
-        <v>3448</v>
+        <v>3793</v>
       </c>
     </row>
     <row r="22">
@@ -721,7 +721,7 @@
         <v>4</v>
       </c>
       <c r="D22" t="n">
-        <v>267</v>
+        <v>283</v>
       </c>
     </row>
     <row r="23">
@@ -731,13 +731,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C23" t="n">
         <v>28</v>
       </c>
       <c r="D23" t="n">
-        <v>1378</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="24">
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C24" t="n">
         <v>2</v>
       </c>
       <c r="D24" t="n">
-        <v>207</v>
+        <v>222</v>
       </c>
     </row>
     <row r="25">
@@ -769,7 +769,7 @@
         <v>7</v>
       </c>
       <c r="D25" t="n">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="26">
@@ -785,7 +785,7 @@
         <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>273</v>
+        <v>286</v>
       </c>
     </row>
     <row r="27">
@@ -795,13 +795,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>221</v>
+        <v>227</v>
       </c>
     </row>
     <row r="28">
@@ -817,7 +817,7 @@
         <v>15</v>
       </c>
       <c r="D28" t="n">
-        <v>524</v>
+        <v>537</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>147</v>
       </c>
       <c r="C29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="n">
-        <v>586</v>
+        <v>596</v>
       </c>
     </row>
     <row r="30">
@@ -843,13 +843,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>920</v>
+        <v>925</v>
       </c>
       <c r="C30" t="n">
         <v>80</v>
       </c>
       <c r="D30" t="n">
-        <v>8296</v>
+        <v>8386</v>
       </c>
     </row>
     <row r="31">
@@ -865,7 +865,7 @@
         <v>18</v>
       </c>
       <c r="D31" t="n">
-        <v>2167</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="32">
@@ -875,13 +875,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C32" t="n">
         <v>11</v>
       </c>
       <c r="D32" t="n">
-        <v>716</v>
+        <v>728</v>
       </c>
     </row>
     <row r="33">
@@ -891,13 +891,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>951</v>
+        <v>958</v>
       </c>
       <c r="C33" t="n">
         <v>53</v>
       </c>
       <c r="D33" t="n">
-        <v>4002</v>
+        <v>4110</v>
       </c>
     </row>
     <row r="34">
@@ -907,13 +907,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="C34" t="n">
         <v>2</v>
       </c>
       <c r="D34" t="n">
-        <v>928</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="35">
@@ -923,13 +923,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C35" t="n">
         <v>9</v>
       </c>
       <c r="D35" t="n">
-        <v>1519</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="36">
@@ -939,13 +939,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C36" t="n">
         <v>2</v>
       </c>
       <c r="D36" t="n">
-        <v>318</v>
+        <v>321</v>
       </c>
     </row>
     <row r="37">
@@ -955,13 +955,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C37" t="n">
         <v>1</v>
       </c>
       <c r="D37" t="n">
-        <v>1051</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="38">
@@ -971,13 +971,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C38" t="n">
         <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>614</v>
+        <v>636</v>
       </c>
     </row>
     <row r="39">
@@ -987,13 +987,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>213</v>
+        <v>221</v>
       </c>
     </row>
     <row r="40">
@@ -1003,13 +1003,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>779</v>
+        <v>783</v>
       </c>
     </row>
     <row r="41">
@@ -1019,13 +1019,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C41" t="n">
         <v>3</v>
       </c>
       <c r="D41" t="n">
-        <v>336</v>
+        <v>346</v>
       </c>
     </row>
     <row r="42">
@@ -1035,13 +1035,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>790</v>
+        <v>807</v>
       </c>
       <c r="C42" t="n">
         <v>85</v>
       </c>
       <c r="D42" t="n">
-        <v>4202</v>
+        <v>4297</v>
       </c>
     </row>
     <row r="43">
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>384</v>
+        <v>393</v>
       </c>
     </row>
     <row r="44">
@@ -1067,13 +1067,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C44" t="n">
         <v>1</v>
       </c>
       <c r="D44" t="n">
-        <v>743</v>
+        <v>785</v>
       </c>
     </row>
     <row r="45">
@@ -1083,13 +1083,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C45" t="n">
         <v>2</v>
       </c>
       <c r="D45" t="n">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="46">
@@ -1099,13 +1099,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2392</v>
+        <v>2445</v>
       </c>
       <c r="C46" t="n">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D46" t="n">
-        <v>11996</v>
+        <v>12541</v>
       </c>
     </row>
     <row r="47">
@@ -1115,13 +1115,13 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C47" t="n">
         <v>11</v>
       </c>
       <c r="D47" t="n">
-        <v>1906</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="48">
@@ -1134,10 +1134,10 @@
         <v>116</v>
       </c>
       <c r="C48" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D48" t="n">
-        <v>690</v>
+        <v>704</v>
       </c>
     </row>
     <row r="49">
@@ -1147,13 +1147,13 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="C49" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D49" t="n">
-        <v>2413</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="50">
@@ -1163,13 +1163,13 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>7245</v>
+        <v>7336</v>
       </c>
       <c r="C50" t="n">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="D50" t="n">
-        <v>33212</v>
+        <v>33849</v>
       </c>
     </row>
     <row r="51">
@@ -1179,13 +1179,13 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C51" t="n">
         <v>1</v>
       </c>
       <c r="D51" t="n">
-        <v>643</v>
+        <v>693</v>
       </c>
     </row>
     <row r="52">
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="53">
@@ -1211,13 +1211,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C53" t="n">
         <v>1</v>
       </c>
       <c r="D53" t="n">
-        <v>683</v>
+        <v>719</v>
       </c>
     </row>
     <row r="54">
@@ -1227,13 +1227,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C54" t="n">
         <v>9</v>
       </c>
       <c r="D54" t="n">
-        <v>1663</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="55">
@@ -1243,13 +1243,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
-        <v>682</v>
+        <v>708</v>
       </c>
     </row>
     <row r="56">
@@ -1259,13 +1259,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C56" t="n">
         <v>8</v>
       </c>
       <c r="D56" t="n">
-        <v>1612</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="57">
@@ -1281,7 +1281,7 @@
         <v>8</v>
       </c>
       <c r="D57" t="n">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="58">
@@ -1291,13 +1291,13 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C58" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D58" t="n">
-        <v>492</v>
+        <v>501</v>
       </c>
     </row>
     <row r="59">
@@ -1313,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="60">
@@ -1323,13 +1323,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C60" t="n">
         <v>18</v>
       </c>
       <c r="D60" t="n">
-        <v>393</v>
+        <v>403</v>
       </c>
     </row>
     <row r="61">
@@ -1345,7 +1345,7 @@
         <v>1</v>
       </c>
       <c r="D61" t="n">
-        <v>371</v>
+        <v>388</v>
       </c>
     </row>
     <row r="62">
@@ -1355,13 +1355,13 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
     </row>
     <row r="63">
@@ -1371,13 +1371,13 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>203</v>
+        <v>209</v>
       </c>
     </row>
     <row r="64">
@@ -1387,13 +1387,13 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65">
@@ -1403,13 +1403,13 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="C65" t="n">
         <v>9</v>
       </c>
       <c r="D65" t="n">
-        <v>2327</v>
+        <v>2392</v>
       </c>
     </row>
     <row r="66">
@@ -1425,7 +1425,7 @@
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="67">
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>297</v>
+        <v>307</v>
       </c>
     </row>
     <row r="68">
@@ -1451,13 +1451,13 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C68" t="n">
         <v>5</v>
       </c>
       <c r="D68" t="n">
-        <v>756</v>
+        <v>782</v>
       </c>
     </row>
     <row r="69">
@@ -1473,7 +1473,7 @@
         <v>2</v>
       </c>
       <c r="D69" t="n">
-        <v>300</v>
+        <v>314</v>
       </c>
     </row>
     <row r="70">
@@ -1483,13 +1483,13 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C70" t="n">
         <v>6</v>
       </c>
       <c r="D70" t="n">
-        <v>572</v>
+        <v>583</v>
       </c>
     </row>
     <row r="71">
@@ -1505,7 +1505,7 @@
         <v>2</v>
       </c>
       <c r="D71" t="n">
-        <v>265</v>
+        <v>276</v>
       </c>
     </row>
     <row r="72">
@@ -1515,13 +1515,13 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C72" t="n">
         <v>2</v>
       </c>
       <c r="D72" t="n">
-        <v>1018</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="73">
@@ -1531,13 +1531,13 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="C73" t="n">
         <v>16</v>
       </c>
       <c r="D73" t="n">
-        <v>1088</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="74">
@@ -1553,7 +1553,7 @@
         <v>1</v>
       </c>
       <c r="D74" t="n">
-        <v>163</v>
+        <v>173</v>
       </c>
     </row>
     <row r="75">
@@ -1563,13 +1563,13 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>785</v>
+        <v>810</v>
       </c>
       <c r="C75" t="n">
         <v>25</v>
       </c>
       <c r="D75" t="n">
-        <v>5250</v>
+        <v>5584</v>
       </c>
     </row>
     <row r="76">
@@ -1585,7 +1585,7 @@
         <v>2</v>
       </c>
       <c r="D76" t="n">
-        <v>270</v>
+        <v>280</v>
       </c>
     </row>
     <row r="77">
@@ -1601,7 +1601,7 @@
         <v>2</v>
       </c>
       <c r="D77" t="n">
-        <v>340</v>
+        <v>363</v>
       </c>
     </row>
     <row r="78">
@@ -1617,7 +1617,7 @@
         <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>236</v>
+        <v>248</v>
       </c>
     </row>
     <row r="79">
@@ -1643,13 +1643,13 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="C80" t="n">
         <v>2</v>
       </c>
       <c r="D80" t="n">
-        <v>3348</v>
+        <v>3587</v>
       </c>
     </row>
     <row r="81">
@@ -1665,7 +1665,7 @@
         <v>1</v>
       </c>
       <c r="D81" t="n">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="82">
@@ -1681,7 +1681,7 @@
         <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="83">
@@ -1691,13 +1691,13 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C83" t="n">
         <v>2</v>
       </c>
       <c r="D83" t="n">
-        <v>3789</v>
+        <v>3851</v>
       </c>
     </row>
     <row r="84">
@@ -1713,7 +1713,7 @@
         <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>144</v>
+        <v>154</v>
       </c>
     </row>
     <row r="85">
@@ -1723,13 +1723,13 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C85" t="n">
         <v>6</v>
       </c>
       <c r="D85" t="n">
-        <v>979</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="86">
@@ -1745,7 +1745,7 @@
         <v>2</v>
       </c>
       <c r="D86" t="n">
-        <v>326</v>
+        <v>330</v>
       </c>
     </row>
     <row r="87">
@@ -1761,7 +1761,7 @@
         <v>1</v>
       </c>
       <c r="D87" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="88">
@@ -1771,13 +1771,13 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C88" t="n">
         <v>20</v>
       </c>
       <c r="D88" t="n">
-        <v>872</v>
+        <v>895</v>
       </c>
     </row>
     <row r="89">
@@ -1793,7 +1793,7 @@
         <v>1</v>
       </c>
       <c r="D89" t="n">
-        <v>348</v>
+        <v>352</v>
       </c>
     </row>
     <row r="90">
@@ -1803,13 +1803,13 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C90" t="n">
         <v>5</v>
       </c>
       <c r="D90" t="n">
-        <v>661</v>
+        <v>685</v>
       </c>
     </row>
     <row r="91">
@@ -1825,7 +1825,7 @@
         <v>0</v>
       </c>
       <c r="D91" t="n">
-        <v>179</v>
+        <v>188</v>
       </c>
     </row>
     <row r="92">
@@ -1835,13 +1835,13 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C92" t="n">
         <v>1</v>
       </c>
       <c r="D92" t="n">
-        <v>768</v>
+        <v>791</v>
       </c>
     </row>
     <row r="93">
@@ -1857,7 +1857,7 @@
         <v>1</v>
       </c>
       <c r="D93" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>

--- a/data/covid-county.xlsx
+++ b/data/covid-county.xlsx
@@ -401,7 +401,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>209</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3">
@@ -411,13 +411,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>816</v>
+        <v>834</v>
       </c>
       <c r="C3" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D3" t="n">
-        <v>5173</v>
+        <v>5392</v>
       </c>
     </row>
     <row r="4">
@@ -427,13 +427,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C4" t="n">
         <v>26</v>
       </c>
       <c r="D4" t="n">
-        <v>879</v>
+        <v>998</v>
       </c>
     </row>
     <row r="5">
@@ -443,13 +443,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>153</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6">
@@ -465,7 +465,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>197</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7">
@@ -475,13 +475,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C7" t="n">
         <v>31</v>
       </c>
       <c r="D7" t="n">
-        <v>1433</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="8">
@@ -497,7 +497,7 @@
         <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9">
@@ -513,7 +513,7 @@
         <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>665</v>
+        <v>706</v>
       </c>
     </row>
     <row r="10">
@@ -523,13 +523,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1520</v>
+        <v>1524</v>
       </c>
       <c r="C10" t="n">
         <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>3008</v>
+        <v>3089</v>
       </c>
     </row>
     <row r="11">
@@ -539,13 +539,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C11" t="n">
         <v>25</v>
       </c>
       <c r="D11" t="n">
-        <v>2274</v>
+        <v>2324</v>
       </c>
     </row>
     <row r="12">
@@ -561,7 +561,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>325</v>
+        <v>347</v>
       </c>
     </row>
     <row r="13">
@@ -571,13 +571,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>692</v>
+        <v>761</v>
       </c>
     </row>
     <row r="14">
@@ -593,7 +593,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15">
@@ -609,7 +609,7 @@
         <v>15</v>
       </c>
       <c r="D15" t="n">
-        <v>452</v>
+        <v>464</v>
       </c>
     </row>
     <row r="16">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C16" t="n">
         <v>13</v>
       </c>
       <c r="D16" t="n">
-        <v>528</v>
+        <v>566</v>
       </c>
     </row>
     <row r="17">
@@ -635,13 +635,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C17" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D17" t="n">
-        <v>662</v>
+        <v>684</v>
       </c>
     </row>
     <row r="18">
@@ -657,7 +657,7 @@
         <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>321</v>
+        <v>339</v>
       </c>
     </row>
     <row r="19">
@@ -667,13 +667,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="C19" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D19" t="n">
-        <v>2162</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="20">
@@ -683,13 +683,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354</v>
+        <v>370</v>
       </c>
     </row>
     <row r="21">
@@ -699,13 +699,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>484</v>
+        <v>494</v>
       </c>
       <c r="C21" t="n">
         <v>18</v>
       </c>
       <c r="D21" t="n">
-        <v>3793</v>
+        <v>3915</v>
       </c>
     </row>
     <row r="22">
@@ -715,13 +715,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C22" t="n">
         <v>4</v>
       </c>
       <c r="D22" t="n">
-        <v>283</v>
+        <v>312</v>
       </c>
     </row>
     <row r="23">
@@ -734,10 +734,10 @@
         <v>232</v>
       </c>
       <c r="C23" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D23" t="n">
-        <v>1411</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="24">
@@ -753,7 +753,7 @@
         <v>2</v>
       </c>
       <c r="D24" t="n">
-        <v>222</v>
+        <v>244</v>
       </c>
     </row>
     <row r="25">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C25" t="n">
         <v>7</v>
       </c>
       <c r="D25" t="n">
-        <v>273</v>
+        <v>287</v>
       </c>
     </row>
     <row r="26">
@@ -785,7 +785,7 @@
         <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>286</v>
+        <v>304</v>
       </c>
     </row>
     <row r="27">
@@ -801,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>227</v>
+        <v>233</v>
       </c>
     </row>
     <row r="28">
@@ -814,10 +814,10 @@
         <v>153</v>
       </c>
       <c r="C28" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D28" t="n">
-        <v>537</v>
+        <v>558</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>147</v>
       </c>
       <c r="C29" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D29" t="n">
-        <v>596</v>
+        <v>621</v>
       </c>
     </row>
     <row r="30">
@@ -843,13 +843,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>925</v>
+        <v>936</v>
       </c>
       <c r="C30" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D30" t="n">
-        <v>8386</v>
+        <v>8616</v>
       </c>
     </row>
     <row r="31">
@@ -859,13 +859,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="C31" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D31" t="n">
-        <v>2208</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="32">
@@ -875,13 +875,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C32" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D32" t="n">
-        <v>728</v>
+        <v>759</v>
       </c>
     </row>
     <row r="33">
@@ -891,13 +891,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>958</v>
+        <v>973</v>
       </c>
       <c r="C33" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D33" t="n">
-        <v>4110</v>
+        <v>4299</v>
       </c>
     </row>
     <row r="34">
@@ -907,13 +907,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C34" t="n">
         <v>2</v>
       </c>
       <c r="D34" t="n">
-        <v>1055</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="35">
@@ -923,13 +923,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="C35" t="n">
         <v>9</v>
       </c>
       <c r="D35" t="n">
-        <v>1543</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="36">
@@ -945,7 +945,7 @@
         <v>2</v>
       </c>
       <c r="D36" t="n">
-        <v>321</v>
+        <v>329</v>
       </c>
     </row>
     <row r="37">
@@ -955,13 +955,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="C37" t="n">
         <v>1</v>
       </c>
       <c r="D37" t="n">
-        <v>1112</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="38">
@@ -971,13 +971,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C38" t="n">
         <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>636</v>
+        <v>658</v>
       </c>
     </row>
     <row r="39">
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>221</v>
+        <v>233</v>
       </c>
     </row>
     <row r="40">
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>783</v>
+        <v>786</v>
       </c>
     </row>
     <row r="41">
@@ -1025,7 +1025,7 @@
         <v>3</v>
       </c>
       <c r="D41" t="n">
-        <v>346</v>
+        <v>362</v>
       </c>
     </row>
     <row r="42">
@@ -1035,13 +1035,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>807</v>
+        <v>827</v>
       </c>
       <c r="C42" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D42" t="n">
-        <v>4297</v>
+        <v>4504</v>
       </c>
     </row>
     <row r="43">
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>393</v>
+        <v>408</v>
       </c>
     </row>
     <row r="44">
@@ -1067,13 +1067,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C44" t="n">
         <v>1</v>
       </c>
       <c r="D44" t="n">
-        <v>785</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="45">
@@ -1089,7 +1089,7 @@
         <v>2</v>
       </c>
       <c r="D45" t="n">
-        <v>210</v>
+        <v>218</v>
       </c>
     </row>
     <row r="46">
@@ -1099,13 +1099,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2445</v>
+        <v>2493</v>
       </c>
       <c r="C46" t="n">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D46" t="n">
-        <v>12541</v>
+        <v>13283</v>
       </c>
     </row>
     <row r="47">
@@ -1115,13 +1115,13 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="C47" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D47" t="n">
-        <v>1965</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="48">
@@ -1131,13 +1131,13 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C48" t="n">
         <v>16</v>
       </c>
       <c r="D48" t="n">
-        <v>704</v>
+        <v>729</v>
       </c>
     </row>
     <row r="49">
@@ -1147,13 +1147,13 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="C49" t="n">
         <v>57</v>
       </c>
       <c r="D49" t="n">
-        <v>2480</v>
+        <v>2621</v>
       </c>
     </row>
     <row r="50">
@@ -1163,13 +1163,13 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>7336</v>
+        <v>7510</v>
       </c>
       <c r="C50" t="n">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="D50" t="n">
-        <v>33849</v>
+        <v>35084</v>
       </c>
     </row>
     <row r="51">
@@ -1179,13 +1179,13 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C51" t="n">
         <v>1</v>
       </c>
       <c r="D51" t="n">
-        <v>693</v>
+        <v>738</v>
       </c>
     </row>
     <row r="52">
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="53">
@@ -1211,13 +1211,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C53" t="n">
         <v>1</v>
       </c>
       <c r="D53" t="n">
-        <v>719</v>
+        <v>760</v>
       </c>
     </row>
     <row r="54">
@@ -1227,13 +1227,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C54" t="n">
         <v>9</v>
       </c>
       <c r="D54" t="n">
-        <v>1724</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="55">
@@ -1243,13 +1243,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="C55" t="n">
         <v>5</v>
       </c>
       <c r="D55" t="n">
-        <v>708</v>
+        <v>747</v>
       </c>
     </row>
     <row r="56">
@@ -1259,13 +1259,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="C56" t="n">
         <v>8</v>
       </c>
       <c r="D56" t="n">
-        <v>1654</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="57">
@@ -1281,7 +1281,7 @@
         <v>8</v>
       </c>
       <c r="D57" t="n">
-        <v>200</v>
+        <v>216</v>
       </c>
     </row>
     <row r="58">
@@ -1291,13 +1291,13 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C58" t="n">
         <v>15</v>
       </c>
       <c r="D58" t="n">
-        <v>501</v>
+        <v>522</v>
       </c>
     </row>
     <row r="59">
@@ -1313,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="60">
@@ -1323,13 +1323,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C60" t="n">
         <v>18</v>
       </c>
       <c r="D60" t="n">
-        <v>403</v>
+        <v>408</v>
       </c>
     </row>
     <row r="61">
@@ -1345,7 +1345,7 @@
         <v>1</v>
       </c>
       <c r="D61" t="n">
-        <v>388</v>
+        <v>405</v>
       </c>
     </row>
     <row r="62">
@@ -1355,13 +1355,13 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>190</v>
+        <v>205</v>
       </c>
     </row>
     <row r="63">
@@ -1371,13 +1371,13 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>209</v>
+        <v>244</v>
       </c>
     </row>
     <row r="64">
@@ -1393,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="65">
@@ -1403,13 +1403,13 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="C65" t="n">
         <v>9</v>
       </c>
       <c r="D65" t="n">
-        <v>2392</v>
+        <v>2487</v>
       </c>
     </row>
     <row r="66">
@@ -1425,7 +1425,7 @@
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>212</v>
+        <v>218</v>
       </c>
     </row>
     <row r="67">
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>307</v>
+        <v>317</v>
       </c>
     </row>
     <row r="68">
@@ -1451,13 +1451,13 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C68" t="n">
         <v>5</v>
       </c>
       <c r="D68" t="n">
-        <v>782</v>
+        <v>824</v>
       </c>
     </row>
     <row r="69">
@@ -1467,13 +1467,13 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C69" t="n">
         <v>2</v>
       </c>
       <c r="D69" t="n">
-        <v>314</v>
+        <v>325</v>
       </c>
     </row>
     <row r="70">
@@ -1489,7 +1489,7 @@
         <v>6</v>
       </c>
       <c r="D70" t="n">
-        <v>583</v>
+        <v>605</v>
       </c>
     </row>
     <row r="71">
@@ -1505,7 +1505,7 @@
         <v>2</v>
       </c>
       <c r="D71" t="n">
-        <v>276</v>
+        <v>307</v>
       </c>
     </row>
     <row r="72">
@@ -1521,7 +1521,7 @@
         <v>2</v>
       </c>
       <c r="D72" t="n">
-        <v>1037</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="73">
@@ -1531,13 +1531,13 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="C73" t="n">
         <v>16</v>
       </c>
       <c r="D73" t="n">
-        <v>1121</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="74">
@@ -1553,7 +1553,7 @@
         <v>1</v>
       </c>
       <c r="D74" t="n">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="75">
@@ -1563,13 +1563,13 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>810</v>
+        <v>829</v>
       </c>
       <c r="C75" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D75" t="n">
-        <v>5584</v>
+        <v>5836</v>
       </c>
     </row>
     <row r="76">
@@ -1585,7 +1585,7 @@
         <v>2</v>
       </c>
       <c r="D76" t="n">
-        <v>280</v>
+        <v>289</v>
       </c>
     </row>
     <row r="77">
@@ -1601,7 +1601,7 @@
         <v>2</v>
       </c>
       <c r="D77" t="n">
-        <v>363</v>
+        <v>411</v>
       </c>
     </row>
     <row r="78">
@@ -1617,7 +1617,7 @@
         <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>248</v>
+        <v>273</v>
       </c>
     </row>
     <row r="79">
@@ -1633,7 +1633,7 @@
         <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="80">
@@ -1643,13 +1643,13 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="C80" t="n">
         <v>2</v>
       </c>
       <c r="D80" t="n">
-        <v>3587</v>
+        <v>3932</v>
       </c>
     </row>
     <row r="81">
@@ -1665,7 +1665,7 @@
         <v>1</v>
       </c>
       <c r="D81" t="n">
-        <v>197</v>
+        <v>216</v>
       </c>
     </row>
     <row r="82">
@@ -1681,7 +1681,7 @@
         <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="83">
@@ -1691,13 +1691,13 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C83" t="n">
         <v>2</v>
       </c>
       <c r="D83" t="n">
-        <v>3851</v>
+        <v>3887</v>
       </c>
     </row>
     <row r="84">
@@ -1713,7 +1713,7 @@
         <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>154</v>
+        <v>168</v>
       </c>
     </row>
     <row r="85">
@@ -1723,13 +1723,13 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C85" t="n">
         <v>6</v>
       </c>
       <c r="D85" t="n">
-        <v>1051</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="86">
@@ -1745,7 +1745,7 @@
         <v>2</v>
       </c>
       <c r="D86" t="n">
-        <v>330</v>
+        <v>354</v>
       </c>
     </row>
     <row r="87">
@@ -1761,7 +1761,7 @@
         <v>1</v>
       </c>
       <c r="D87" t="n">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="88">
@@ -1777,7 +1777,7 @@
         <v>20</v>
       </c>
       <c r="D88" t="n">
-        <v>895</v>
+        <v>915</v>
       </c>
     </row>
     <row r="89">
@@ -1793,7 +1793,7 @@
         <v>1</v>
       </c>
       <c r="D89" t="n">
-        <v>352</v>
+        <v>362</v>
       </c>
     </row>
     <row r="90">
@@ -1809,7 +1809,7 @@
         <v>5</v>
       </c>
       <c r="D90" t="n">
-        <v>685</v>
+        <v>737</v>
       </c>
     </row>
     <row r="91">
@@ -1819,13 +1819,13 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C91" t="n">
         <v>0</v>
       </c>
       <c r="D91" t="n">
-        <v>188</v>
+        <v>196</v>
       </c>
     </row>
     <row r="92">
@@ -1835,13 +1835,13 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C92" t="n">
         <v>1</v>
       </c>
       <c r="D92" t="n">
-        <v>791</v>
+        <v>857</v>
       </c>
     </row>
     <row r="93">
@@ -1857,7 +1857,7 @@
         <v>1</v>
       </c>
       <c r="D93" t="n">
-        <v>257</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
